--- a/Impfquotenmonitoring/raw_data/RKI_COVID19_Impfquotenmonitoring_latest.xlsx
+++ b/Impfquotenmonitoring/raw_data/RKI_COVID19_Impfquotenmonitoring_latest.xlsx
@@ -5,24 +5,24 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-03-24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-03-25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7964D44F-A31B-4FF9-A6F1-120EF08123BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A734248-2897-424A-AFDF-F052B231413C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="110" windowWidth="28520" windowHeight="12600" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Gesamt_bis_einschl_23.03.21" sheetId="12" r:id="rId2"/>
-    <sheet name="Indik_bis_einschl_23.03.21" sheetId="11" r:id="rId3"/>
+    <sheet name="Gesamt_bis_einschl_24.03.21" sheetId="12" r:id="rId2"/>
+    <sheet name="Indik_bis_einschl_24.03.21" sheetId="11" r:id="rId3"/>
     <sheet name="Impfungen_proTag" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_23.03.21!#REF!</definedName>
-    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_23.03.21!$G$2:$J$18</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_23.03.21!$D$3:$H$19</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_23.03.21!$C$2:$F$18</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_24.03.21!#REF!</definedName>
+    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_24.03.21!$G$2:$J$18</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_24.03.21!$D$3:$H$19</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_24.03.21!$C$2:$F$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -240,22 +240,22 @@
     <t>* Impfungen, die in den bundeseigenen Impfzentren aus dem Impfkontingent des Bundes durchgeführt wurden. Diese gehen in die Berechnung der Impfquote für Gesamtdeutschland mit ein und umfassen nur Angehörige des Bundes, die nach §§ 2, 3 und 4 Coronavirus-Impfverordnung geimpft wurden. Die Zahlen werden unregelmäßig aktualisiert (letzte Aktualisierung: 16.03.2021).</t>
   </si>
   <si>
-    <t>Datenstand: 24.03.2021, 8:00 Uhr</t>
-  </si>
-  <si>
-    <t>Durchgeführte Impfungen bundesweit und nach Bundesland bis einschließlich 23.03.21 (Gesamt_bis_einschl_23.03.21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 23.03.21 durchgeführt und bis zum 24.03.21, 8:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
-  </si>
-  <si>
-    <t>Anzahl Impfungen nach Indikation bis einschließlich 23.03.21 (Indik_bis_einschl_23.03.21)</t>
-  </si>
-  <si>
     <t>Hessen ***</t>
   </si>
   <si>
     <t>*** Aufgrund einer Softwareumstellung werden für die Impftage 22.03.-25.03.2021 vom Land Hessen keine Impfdaten nach Indikation übermittelt.</t>
+  </si>
+  <si>
+    <t>Datenstand: 25.03.2021, 8:00 Uhr</t>
+  </si>
+  <si>
+    <t>Durchgeführte Impfungen bundesweit und nach Bundesland bis einschließlich 24.03.21 (Gesamt_bis_einschl_24.03.21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 24.03.21 durchgeführt und bis zum 25.03.21, 8:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
+  </si>
+  <si>
+    <t>Anzahl Impfungen nach Indikation bis einschließlich 24.03.21 (Indik_bis_einschl_24.03.21)</t>
   </si>
   <si>
     <t>-</t>
@@ -1201,117 +1201,119 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5241AA5B-8CBB-47B1-9317-352256D0A517}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="148.453125" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="11.453125" style="5"/>
+    <col min="1" max="1" width="148.42578125" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
     </row>
-    <row r="10" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="38" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="38" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="38" t="s">
         <v>56</v>
       </c>
@@ -1327,26 +1329,26 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="5" width="11.453125" style="5"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" style="5"/>
     <col min="7" max="7" width="13" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.26953125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="5" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="11" max="12" width="11.453125" style="31"/>
-    <col min="13" max="13" width="12.7265625" style="31" customWidth="1"/>
-    <col min="14" max="14" width="12.54296875" customWidth="1"/>
-    <col min="15" max="15" width="9.54296875" customWidth="1"/>
+    <col min="11" max="12" width="11.42578125" style="31"/>
+    <col min="13" max="13" width="12.7109375" style="31" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" customWidth="1"/>
     <col min="16" max="16" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="68" t="s">
         <v>42</v>
       </c>
@@ -1373,7 +1375,7 @@
       <c r="N1" s="66"/>
       <c r="O1" s="67"/>
     </row>
-    <row r="2" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="68"/>
       <c r="B2" s="70"/>
       <c r="C2" s="76"/>
@@ -1402,7 +1404,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="69"/>
       <c r="B3" s="71"/>
       <c r="C3" s="77"/>
@@ -1435,7 +1437,7 @@
       <c r="N3" s="75"/>
       <c r="O3" s="64"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>33</v>
       </c>
@@ -1443,46 +1445,46 @@
         <v>1</v>
       </c>
       <c r="C4" s="25">
-        <v>1518372</v>
+        <v>1553969</v>
       </c>
       <c r="D4" s="10">
-        <v>1054875</v>
+        <v>1080589</v>
       </c>
       <c r="E4" s="10">
-        <v>708972</v>
+        <v>721048</v>
       </c>
       <c r="F4" s="10">
-        <v>45047</v>
+        <v>46012</v>
       </c>
       <c r="G4" s="10">
-        <v>300856</v>
+        <v>313529</v>
       </c>
       <c r="H4" s="10">
-        <v>26293</v>
+        <v>23608</v>
       </c>
       <c r="I4" s="24">
-        <v>9.5030410632271245</v>
+        <v>9.7346904983733005</v>
       </c>
       <c r="J4" s="22">
-        <v>463497</v>
+        <v>473380</v>
       </c>
       <c r="K4" s="10">
-        <v>442248</v>
+        <v>451401</v>
       </c>
       <c r="L4" s="10">
-        <v>21243</v>
+        <v>21973</v>
       </c>
       <c r="M4" s="10">
         <v>6</v>
       </c>
       <c r="N4" s="11">
-        <v>7884</v>
+        <v>9679</v>
       </c>
       <c r="O4" s="41">
-        <v>4.1755004371916895</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+        <v>4.2645333129616843</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>34</v>
       </c>
@@ -1490,46 +1492,46 @@
         <v>0</v>
       </c>
       <c r="C5" s="26">
-        <v>1924501</v>
+        <v>1974514</v>
       </c>
       <c r="D5" s="15">
-        <v>1308215</v>
+        <v>1344543</v>
       </c>
       <c r="E5" s="15">
-        <v>905706</v>
+        <v>925792</v>
       </c>
       <c r="F5" s="15">
-        <v>62250</v>
+        <v>64901</v>
       </c>
       <c r="G5" s="15">
-        <v>340259</v>
+        <v>353850</v>
       </c>
       <c r="H5" s="16">
-        <v>29294</v>
+        <v>36328</v>
       </c>
       <c r="I5" s="17">
-        <v>9.9675521117108872</v>
+        <v>10.244342419966205</v>
       </c>
       <c r="J5" s="23">
-        <v>616286</v>
+        <v>629971</v>
       </c>
       <c r="K5" s="15">
-        <v>597705</v>
+        <v>610832</v>
       </c>
       <c r="L5" s="15">
-        <v>18526</v>
+        <v>19079</v>
       </c>
       <c r="M5" s="15">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="N5" s="16">
-        <v>14529</v>
+        <v>13685</v>
       </c>
       <c r="O5" s="17">
-        <v>4.6956064719620665</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+        <v>4.7998752279759973</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>11</v>
       </c>
@@ -1537,46 +1539,46 @@
         <v>3</v>
       </c>
       <c r="C6" s="25">
-        <v>530867</v>
+        <v>543356</v>
       </c>
       <c r="D6" s="10">
-        <v>362711</v>
+        <v>371582</v>
       </c>
       <c r="E6" s="10">
-        <v>256345</v>
+        <v>259717</v>
       </c>
       <c r="F6" s="10">
-        <v>34078</v>
+        <v>35780</v>
       </c>
       <c r="G6" s="10">
-        <v>72288</v>
+        <v>76085</v>
       </c>
       <c r="H6" s="11">
-        <v>8381</v>
+        <v>8871</v>
       </c>
       <c r="I6" s="12">
-        <v>9.8845044176426651</v>
+        <v>10.1262545677316</v>
       </c>
       <c r="J6" s="22">
-        <v>168156</v>
+        <v>171774</v>
       </c>
       <c r="K6" s="10">
-        <v>162984</v>
+        <v>166446</v>
       </c>
       <c r="L6" s="10">
-        <v>5172</v>
+        <v>5328</v>
       </c>
       <c r="M6" s="10">
         <v>0</v>
       </c>
       <c r="N6" s="11">
-        <v>3807</v>
+        <v>3618</v>
       </c>
       <c r="O6" s="12">
-        <v>4.5825429194403258</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+        <v>4.6811397003017587</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>12</v>
       </c>
@@ -1584,46 +1586,46 @@
         <v>2</v>
       </c>
       <c r="C7" s="26">
-        <v>332742</v>
+        <v>348612</v>
       </c>
       <c r="D7" s="15">
-        <v>243989</v>
+        <v>258338</v>
       </c>
       <c r="E7" s="15">
-        <v>156647</v>
+        <v>165536</v>
       </c>
       <c r="F7" s="15">
-        <v>15442</v>
+        <v>16329</v>
       </c>
       <c r="G7" s="15">
-        <v>71900</v>
+        <v>76473</v>
       </c>
       <c r="H7" s="16">
-        <v>12816</v>
+        <v>13714</v>
       </c>
       <c r="I7" s="17">
-        <v>9.6748355302941089</v>
+        <v>10.243812881831229</v>
       </c>
       <c r="J7" s="23">
-        <v>88753</v>
+        <v>90274</v>
       </c>
       <c r="K7" s="15">
-        <v>84666</v>
+        <v>86179</v>
       </c>
       <c r="L7" s="15">
-        <v>4086</v>
+        <v>4094</v>
       </c>
       <c r="M7" s="15">
         <v>1</v>
       </c>
       <c r="N7" s="16">
-        <v>1612</v>
+        <v>1521</v>
       </c>
       <c r="O7" s="17">
-        <v>3.5193007792162474</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+        <v>3.5796126163956998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>35</v>
       </c>
@@ -1631,31 +1633,31 @@
         <v>4</v>
       </c>
       <c r="C8" s="25">
-        <v>104469</v>
+        <v>107632</v>
       </c>
       <c r="D8" s="10">
-        <v>73883</v>
+        <v>76320</v>
       </c>
       <c r="E8" s="10">
-        <v>47727</v>
+        <v>49296</v>
       </c>
       <c r="F8" s="10">
-        <v>3716</v>
+        <v>3897</v>
       </c>
       <c r="G8" s="10">
-        <v>22440</v>
+        <v>23127</v>
       </c>
       <c r="H8" s="11">
-        <v>2442</v>
+        <v>2432</v>
       </c>
       <c r="I8" s="12">
-        <v>10.845975202656481</v>
+        <v>11.203725179902584</v>
       </c>
       <c r="J8" s="22">
-        <v>30586</v>
+        <v>31312</v>
       </c>
       <c r="K8" s="10">
-        <v>28731</v>
+        <v>29457</v>
       </c>
       <c r="L8" s="10">
         <v>1855</v>
@@ -1664,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="N8" s="11">
-        <v>673</v>
+        <v>725</v>
       </c>
       <c r="O8" s="12">
-        <v>4.490004433339891</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+        <v>4.5965807499097187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>36</v>
       </c>
@@ -1678,31 +1680,31 @@
         <v>5</v>
       </c>
       <c r="C9" s="26">
-        <v>260973</v>
+        <v>265937</v>
       </c>
       <c r="D9" s="15">
-        <v>179265</v>
+        <v>182998</v>
       </c>
       <c r="E9" s="15">
-        <v>123945</v>
+        <v>126887</v>
       </c>
       <c r="F9" s="15">
         <v>6986</v>
       </c>
       <c r="G9" s="15">
-        <v>48334</v>
+        <v>49125</v>
       </c>
       <c r="H9" s="16">
-        <v>2809</v>
+        <v>3725</v>
       </c>
       <c r="I9" s="17">
-        <v>9.7044097370528029</v>
+        <v>9.9064935880466827</v>
       </c>
       <c r="J9" s="23">
-        <v>81708</v>
+        <v>82939</v>
       </c>
       <c r="K9" s="15">
-        <v>80105</v>
+        <v>81336</v>
       </c>
       <c r="L9" s="15">
         <v>1600</v>
@@ -1711,13 +1713,13 @@
         <v>3</v>
       </c>
       <c r="N9" s="16">
-        <v>1078</v>
+        <v>1231</v>
       </c>
       <c r="O9" s="17">
-        <v>4.4232165274599637</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+        <v>4.4898560186395695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>37</v>
       </c>
@@ -1725,46 +1727,46 @@
         <v>15</v>
       </c>
       <c r="C10" s="25">
-        <v>869147</v>
+        <v>892266</v>
       </c>
       <c r="D10" s="10">
-        <v>601218</v>
+        <v>616264</v>
       </c>
       <c r="E10" s="10">
-        <v>426469</v>
+        <v>433247</v>
       </c>
       <c r="F10" s="10">
-        <v>20416</v>
+        <v>21091</v>
       </c>
       <c r="G10" s="10">
-        <v>154333</v>
+        <v>161926</v>
       </c>
       <c r="H10" s="11">
-        <v>12376</v>
+        <v>15046</v>
       </c>
       <c r="I10" s="12">
-        <v>9.5612333176422695</v>
+        <v>9.8005114438747594</v>
       </c>
       <c r="J10" s="22">
-        <v>267929</v>
+        <v>276002</v>
       </c>
       <c r="K10" s="10">
-        <v>260172</v>
+        <v>267516</v>
       </c>
       <c r="L10" s="10">
-        <v>7699</v>
+        <v>8425</v>
       </c>
       <c r="M10" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N10" s="11">
-        <v>7460</v>
+        <v>8073</v>
       </c>
       <c r="O10" s="12">
-        <v>4.2609031691708754</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+        <v>4.3892889403442705</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>13</v>
       </c>
@@ -1772,46 +1774,46 @@
         <v>6</v>
       </c>
       <c r="C11" s="27">
-        <v>203859</v>
+        <v>211466</v>
       </c>
       <c r="D11" s="15">
-        <v>137984</v>
+        <v>143656</v>
       </c>
       <c r="E11" s="15">
-        <v>107204</v>
+        <v>110628</v>
       </c>
       <c r="F11" s="15">
-        <v>6980</v>
+        <v>8183</v>
       </c>
       <c r="G11" s="15">
-        <v>23800</v>
+        <v>24845</v>
       </c>
       <c r="H11" s="16">
-        <v>4880</v>
+        <v>5513</v>
       </c>
       <c r="I11" s="17">
-        <v>8.5803581533425621</v>
+        <v>8.9330642022015532</v>
       </c>
       <c r="J11" s="23">
-        <v>65875</v>
+        <v>67810</v>
       </c>
       <c r="K11" s="15">
-        <v>63090</v>
+        <v>64891</v>
       </c>
       <c r="L11" s="15">
-        <v>2754</v>
+        <v>2888</v>
       </c>
       <c r="M11" s="15">
         <v>31</v>
       </c>
       <c r="N11" s="16">
-        <v>1938</v>
+        <v>1843</v>
       </c>
       <c r="O11" s="17">
-        <v>4.0963524274658019</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+        <v>4.2166779219196364</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>38</v>
       </c>
@@ -1819,46 +1821,46 @@
         <v>7</v>
       </c>
       <c r="C12" s="25">
-        <v>1069640</v>
+        <v>1108104</v>
       </c>
       <c r="D12" s="10">
-        <v>736633</v>
+        <v>761064</v>
       </c>
       <c r="E12" s="10">
-        <v>507755</v>
+        <v>517978</v>
       </c>
       <c r="F12" s="10">
-        <v>31578</v>
+        <v>33818</v>
       </c>
       <c r="G12" s="10">
-        <v>197300</v>
+        <v>209268</v>
       </c>
       <c r="H12" s="11">
-        <v>21179</v>
+        <v>22214</v>
       </c>
       <c r="I12" s="12">
-        <v>9.2152755051285986</v>
+        <v>9.5209072048566803</v>
       </c>
       <c r="J12" s="22">
-        <v>333007</v>
+        <v>347040</v>
       </c>
       <c r="K12" s="10">
-        <v>324700</v>
+        <v>337726</v>
       </c>
       <c r="L12" s="10">
-        <v>8307</v>
+        <v>9314</v>
       </c>
       <c r="M12" s="10">
         <v>0</v>
       </c>
       <c r="N12" s="11">
-        <v>11177</v>
+        <v>13537</v>
       </c>
       <c r="O12" s="12">
-        <v>4.1659160669374824</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+        <v>4.3414688335980456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>39</v>
       </c>
@@ -1866,46 +1868,46 @@
         <v>8</v>
       </c>
       <c r="C13" s="26">
-        <v>2309065</v>
+        <v>2358399</v>
       </c>
       <c r="D13" s="15">
-        <v>1606409</v>
+        <v>1639704</v>
       </c>
       <c r="E13" s="15">
-        <v>1121301</v>
+        <v>1138319</v>
       </c>
       <c r="F13" s="15">
-        <v>34000</v>
+        <v>35544</v>
       </c>
       <c r="G13" s="15">
-        <v>451108</v>
+        <v>465841</v>
       </c>
       <c r="H13" s="16">
-        <v>27657</v>
+        <v>29344</v>
       </c>
       <c r="I13" s="17">
-        <v>8.950739504461442</v>
+        <v>9.1362556910621429</v>
       </c>
       <c r="J13" s="23">
-        <v>702656</v>
+        <v>718695</v>
       </c>
       <c r="K13" s="15">
-        <v>688761</v>
+        <v>704777</v>
       </c>
       <c r="L13" s="15">
-        <v>13639</v>
+        <v>13640</v>
       </c>
       <c r="M13" s="15">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="N13" s="16">
-        <v>12021</v>
+        <v>15427</v>
       </c>
       <c r="O13" s="17">
-        <v>3.9151242412404681</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+        <v>4.0044918374828056</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>40</v>
       </c>
@@ -1913,46 +1915,46 @@
         <v>12</v>
       </c>
       <c r="C14" s="25">
-        <v>603406</v>
+        <v>616516</v>
       </c>
       <c r="D14" s="10">
-        <v>433261</v>
+        <v>443982</v>
       </c>
       <c r="E14" s="10">
-        <v>284321</v>
+        <v>292824</v>
       </c>
       <c r="F14" s="10">
-        <v>20994</v>
+        <v>22337</v>
       </c>
       <c r="G14" s="10">
-        <v>127946</v>
+        <v>128821</v>
       </c>
       <c r="H14" s="11">
-        <v>8689</v>
+        <v>8391</v>
       </c>
       <c r="I14" s="12">
-        <v>10.583079276670698</v>
+        <v>10.844956512159667</v>
       </c>
       <c r="J14" s="22">
-        <v>170145</v>
+        <v>172534</v>
       </c>
       <c r="K14" s="10">
-        <v>165977</v>
+        <v>168255</v>
       </c>
       <c r="L14" s="10">
-        <v>4167</v>
+        <v>4232</v>
       </c>
       <c r="M14" s="10">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="N14" s="11">
-        <v>2449</v>
+        <v>2227</v>
       </c>
       <c r="O14" s="12">
-        <v>4.156058411740581</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+        <v>4.2144134826838844</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>10</v>
       </c>
@@ -1960,31 +1962,31 @@
         <v>13</v>
       </c>
       <c r="C15" s="26">
-        <v>150743</v>
+        <v>154580</v>
       </c>
       <c r="D15" s="15">
-        <v>112486</v>
+        <v>115559</v>
       </c>
       <c r="E15" s="15">
-        <v>76860</v>
+        <v>78257</v>
       </c>
       <c r="F15" s="15">
-        <v>5728</v>
+        <v>6022</v>
       </c>
       <c r="G15" s="15">
-        <v>29898</v>
+        <v>31280</v>
       </c>
       <c r="H15" s="16">
-        <v>3065</v>
+        <v>3074</v>
       </c>
       <c r="I15" s="17">
-        <v>11.398062797463133</v>
+        <v>11.709445964938235</v>
       </c>
       <c r="J15" s="23">
-        <v>38257</v>
+        <v>39021</v>
       </c>
       <c r="K15" s="15">
-        <v>36796</v>
+        <v>37560</v>
       </c>
       <c r="L15" s="15">
         <v>1457</v>
@@ -1993,13 +1995,13 @@
         <v>4</v>
       </c>
       <c r="N15" s="16">
-        <v>740</v>
+        <v>765</v>
       </c>
       <c r="O15" s="17">
-        <v>3.8765329769264363</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+        <v>3.9539481217201162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -2007,46 +2009,46 @@
         <v>9</v>
       </c>
       <c r="C16" s="25">
-        <v>536247</v>
+        <v>547324</v>
       </c>
       <c r="D16" s="10">
-        <v>338399</v>
+        <v>342572</v>
       </c>
       <c r="E16" s="10">
-        <v>270683</v>
+        <v>271474</v>
       </c>
       <c r="F16" s="10">
-        <v>17733</v>
+        <v>17895</v>
       </c>
       <c r="G16" s="10">
-        <v>49983</v>
+        <v>53203</v>
       </c>
       <c r="H16" s="11">
-        <v>5246</v>
+        <v>4173</v>
       </c>
       <c r="I16" s="12">
-        <v>8.3104472011220114</v>
+        <v>8.4129282846071352</v>
       </c>
       <c r="J16" s="22">
-        <v>197848</v>
+        <v>204752</v>
       </c>
       <c r="K16" s="10">
-        <v>190909</v>
+        <v>197271</v>
       </c>
       <c r="L16" s="10">
-        <v>6939</v>
+        <v>7481</v>
       </c>
       <c r="M16" s="10">
         <v>0</v>
       </c>
       <c r="N16" s="11">
-        <v>9133</v>
+        <v>6904</v>
       </c>
       <c r="O16" s="12">
-        <v>4.8587772358889589</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+        <v>5.0283265769820069</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -2054,46 +2056,46 @@
         <v>10</v>
       </c>
       <c r="C17" s="26">
-        <v>286497</v>
+        <v>296886</v>
       </c>
       <c r="D17" s="15">
-        <v>203881</v>
+        <v>212283</v>
       </c>
       <c r="E17" s="15">
-        <v>139324</v>
+        <v>143948</v>
       </c>
       <c r="F17" s="15">
-        <v>13428</v>
+        <v>13999</v>
       </c>
       <c r="G17" s="15">
-        <v>51129</v>
+        <v>54336</v>
       </c>
       <c r="H17" s="16">
-        <v>7475</v>
+        <v>8402</v>
       </c>
       <c r="I17" s="17">
-        <v>9.2893508330212295</v>
+        <v>9.6721678964015574</v>
       </c>
       <c r="J17" s="23">
-        <v>82616</v>
+        <v>84603</v>
       </c>
       <c r="K17" s="15">
-        <v>79293</v>
+        <v>81259</v>
       </c>
       <c r="L17" s="15">
-        <v>3319</v>
+        <v>3340</v>
       </c>
       <c r="M17" s="15">
         <v>4</v>
       </c>
       <c r="N17" s="16">
-        <v>2111</v>
+        <v>1987</v>
       </c>
       <c r="O17" s="17">
-        <v>3.7642007269970321</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+        <v>3.8547336364158262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>41</v>
       </c>
@@ -2101,46 +2103,46 @@
         <v>11</v>
       </c>
       <c r="C18" s="25">
-        <v>412523</v>
+        <v>424471</v>
       </c>
       <c r="D18" s="10">
-        <v>308679</v>
+        <v>319301</v>
       </c>
       <c r="E18" s="10">
-        <v>212597</v>
+        <v>218609</v>
       </c>
       <c r="F18" s="10">
-        <v>14952</v>
+        <v>15586</v>
       </c>
       <c r="G18" s="10">
-        <v>81130</v>
+        <v>85106</v>
       </c>
       <c r="H18" s="11">
-        <v>9485</v>
+        <v>10508</v>
       </c>
       <c r="I18" s="12">
-        <v>10.630273096416284</v>
+        <v>10.996073040144667</v>
       </c>
       <c r="J18" s="22">
-        <v>103844</v>
+        <v>105170</v>
       </c>
       <c r="K18" s="10">
-        <v>101114</v>
+        <v>102332</v>
       </c>
       <c r="L18" s="10">
-        <v>2699</v>
+        <v>2806</v>
       </c>
       <c r="M18" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N18" s="11">
-        <v>1472</v>
+        <v>1326</v>
       </c>
       <c r="O18" s="12">
-        <v>3.5761748593984448</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+        <v>3.6218395859455956</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>16</v>
       </c>
@@ -2148,49 +2150,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="26">
-        <v>334495</v>
+        <v>342883</v>
       </c>
       <c r="D19" s="15">
-        <v>228692</v>
+        <v>234541</v>
       </c>
       <c r="E19" s="15">
-        <v>154743</v>
+        <v>157704</v>
       </c>
       <c r="F19" s="15">
-        <v>8973</v>
+        <v>8982</v>
       </c>
       <c r="G19" s="15">
-        <v>64976</v>
+        <v>67855</v>
       </c>
       <c r="H19" s="16">
-        <v>5814</v>
+        <v>5512</v>
       </c>
       <c r="I19" s="17">
-        <v>10.71971305600789</v>
+        <v>10.993879190654447</v>
       </c>
       <c r="J19" s="23">
-        <v>105803</v>
+        <v>108342</v>
       </c>
       <c r="K19" s="15">
-        <v>99947</v>
+        <v>101885</v>
       </c>
       <c r="L19" s="15">
-        <v>5856</v>
+        <v>6457</v>
       </c>
       <c r="M19" s="15">
         <v>0</v>
       </c>
       <c r="N19" s="16">
-        <v>2310</v>
+        <v>2544</v>
       </c>
       <c r="O19" s="17">
-        <v>4.9594117873157035</v>
+        <v>5.0784249204782279</v>
       </c>
       <c r="P19" s="53"/>
       <c r="Q19" s="53"/>
       <c r="R19" s="53"/>
     </row>
-    <row r="20" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="1" t="s">
         <v>58</v>
@@ -2238,60 +2240,60 @@
       <c r="Q20" s="53"/>
       <c r="R20" s="53"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="42"/>
       <c r="B21" s="43" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="44">
-        <v>11454526</v>
+        <v>11753895</v>
       </c>
       <c r="D21" s="42">
-        <v>7937540</v>
+        <v>8150256</v>
       </c>
       <c r="E21" s="42">
-        <v>5500599</v>
+        <v>5611264</v>
       </c>
       <c r="F21" s="42">
-        <v>342671</v>
+        <v>357732</v>
       </c>
       <c r="G21" s="42">
-        <v>2094270</v>
+        <v>2181260</v>
       </c>
       <c r="H21" s="42">
-        <v>187901</v>
+        <v>200855</v>
       </c>
       <c r="I21" s="45">
-        <v>9.5441311848919934</v>
+        <v>9.7999017900323135</v>
       </c>
       <c r="J21" s="46">
-        <v>3516986</v>
+        <v>3603639</v>
       </c>
       <c r="K21" s="42">
-        <v>3407198</v>
+        <v>3489123</v>
       </c>
       <c r="L21" s="42">
-        <v>109338</v>
+        <v>113989</v>
       </c>
       <c r="M21" s="42">
-        <v>450</v>
+        <v>527</v>
       </c>
       <c r="N21" s="42">
-        <v>80394</v>
+        <v>85092</v>
       </c>
       <c r="O21" s="45">
-        <v>4.228838627512876</v>
+        <v>4.3330305559396241</v>
       </c>
       <c r="P21" s="53"/>
       <c r="Q21" s="53"/>
       <c r="R21" s="53"/>
     </row>
-    <row r="23" spans="1:18" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="62" t="s">
         <v>64</v>
       </c>
@@ -2310,12 +2312,12 @@
       <c r="N24" s="62"/>
       <c r="O24" s="62"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C28" s="54"/>
       <c r="D28" s="54"/>
       <c r="J28" s="54"/>
@@ -2351,21 +2353,21 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.26953125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="5" customWidth="1"/>
     <col min="2" max="2" width="23" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="5"/>
-    <col min="5" max="5" width="12.7265625" style="5" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="5"/>
+    <col min="5" max="5" width="12.7109375" style="5" customWidth="1"/>
     <col min="6" max="6" width="13" style="5" customWidth="1"/>
-    <col min="7" max="8" width="11.453125" style="5"/>
-    <col min="9" max="9" width="13.26953125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="14.26953125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="56.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.453125" style="5"/>
+    <col min="7" max="8" width="11.42578125" style="5"/>
+    <col min="9" max="9" width="13.28515625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="56.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="80" t="s">
         <v>42</v>
       </c>
@@ -2385,7 +2387,7 @@
       <c r="I1" s="66"/>
       <c r="J1" s="66"/>
     </row>
-    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="81"/>
       <c r="B2" s="71"/>
       <c r="C2" s="20" t="s">
@@ -2413,7 +2415,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -2421,31 +2423,31 @@
         <v>1</v>
       </c>
       <c r="C3" s="13">
-        <v>486518</v>
+        <v>495580</v>
       </c>
       <c r="D3" s="11">
-        <v>442693</v>
+        <v>453075</v>
       </c>
       <c r="E3" s="11">
-        <v>73081</v>
+        <v>77309</v>
       </c>
       <c r="F3" s="14">
-        <v>96399</v>
+        <v>97386</v>
       </c>
       <c r="G3" s="13">
-        <v>289532</v>
+        <v>297487</v>
       </c>
       <c r="H3" s="11">
-        <v>144377</v>
+        <v>145777</v>
       </c>
       <c r="I3" s="11">
-        <v>9553</v>
+        <v>9735</v>
       </c>
       <c r="J3" s="14">
-        <v>78416</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+        <v>79138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>34</v>
       </c>
@@ -2453,31 +2455,31 @@
         <v>0</v>
       </c>
       <c r="C4" s="19">
-        <v>608426</v>
+        <v>628261</v>
       </c>
       <c r="D4" s="16">
-        <v>551567</v>
+        <v>562642</v>
       </c>
       <c r="E4" s="16">
-        <v>104848</v>
+        <v>111890</v>
       </c>
       <c r="F4" s="18">
-        <v>135429</v>
+        <v>136347</v>
       </c>
       <c r="G4" s="19">
-        <v>297841</v>
+        <v>308025</v>
       </c>
       <c r="H4" s="16">
-        <v>247166</v>
+        <v>249872</v>
       </c>
       <c r="I4" s="16">
-        <v>18351</v>
+        <v>19312</v>
       </c>
       <c r="J4" s="18">
-        <v>110441</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+        <v>111146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>11</v>
       </c>
@@ -2485,10 +2487,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="13">
-        <v>252777</v>
+        <v>259202</v>
       </c>
       <c r="D5" s="11">
-        <v>116156</v>
+        <v>118612</v>
       </c>
       <c r="E5" s="11">
         <v>2810</v>
@@ -2497,10 +2499,10 @@
         <v>47310</v>
       </c>
       <c r="G5" s="13">
-        <v>130047</v>
+        <v>133341</v>
       </c>
       <c r="H5" s="11">
-        <v>37370</v>
+        <v>37787</v>
       </c>
       <c r="I5" s="11">
         <v>137</v>
@@ -2509,7 +2511,7 @@
         <v>40686</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>12</v>
       </c>
@@ -2517,31 +2519,31 @@
         <v>2</v>
       </c>
       <c r="C6" s="19">
-        <v>114815</v>
+        <v>122561</v>
       </c>
       <c r="D6" s="16">
-        <v>99897</v>
+        <v>101954</v>
       </c>
       <c r="E6" s="16">
-        <v>24780</v>
+        <v>27212</v>
       </c>
       <c r="F6" s="18">
-        <v>26328</v>
+        <v>26585</v>
       </c>
       <c r="G6" s="19">
-        <v>44122</v>
+        <v>45312</v>
       </c>
       <c r="H6" s="16">
-        <v>42562</v>
+        <v>42683</v>
       </c>
       <c r="I6" s="16">
-        <v>1525</v>
+        <v>1573</v>
       </c>
       <c r="J6" s="18">
-        <v>18312</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+        <v>18400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>35</v>
       </c>
@@ -2549,31 +2551,31 @@
         <v>4</v>
       </c>
       <c r="C7" s="13">
-        <v>31759</v>
+        <v>33228</v>
       </c>
       <c r="D7" s="11">
-        <v>36476</v>
+        <v>37303</v>
       </c>
       <c r="E7" s="11">
-        <v>1675</v>
+        <v>1775</v>
       </c>
       <c r="F7" s="14">
-        <v>8743</v>
+        <v>8758</v>
       </c>
       <c r="G7" s="13">
-        <v>16062</v>
+        <v>16508</v>
       </c>
       <c r="H7" s="11">
-        <v>11190</v>
+        <v>11427</v>
       </c>
       <c r="I7" s="11">
-        <v>360</v>
+        <v>417</v>
       </c>
       <c r="J7" s="14">
-        <v>7251</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+        <v>7257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>36</v>
       </c>
@@ -2581,36 +2583,36 @@
         <v>5</v>
       </c>
       <c r="C8" s="19">
-        <v>71023</v>
+        <v>71987</v>
       </c>
       <c r="D8" s="16">
-        <v>97088</v>
+        <v>99388</v>
       </c>
       <c r="E8" s="16">
-        <v>5978</v>
+        <v>6436</v>
       </c>
       <c r="F8" s="18">
-        <v>16037</v>
+        <v>16039</v>
       </c>
       <c r="G8" s="19">
-        <v>42471</v>
+        <v>43582</v>
       </c>
       <c r="H8" s="16">
-        <v>35308</v>
+        <v>35415</v>
       </c>
       <c r="I8" s="16">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="J8" s="18">
-        <v>13197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+        <v>13212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C9" s="13">
         <v>242522</v>
@@ -2637,7 +2639,7 @@
         <v>39901</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>13</v>
       </c>
@@ -2645,31 +2647,31 @@
         <v>6</v>
       </c>
       <c r="C10" s="19">
-        <v>54686</v>
+        <v>58396</v>
       </c>
       <c r="D10" s="16">
-        <v>54770</v>
+        <v>55812</v>
       </c>
       <c r="E10" s="16">
-        <v>4975</v>
+        <v>5565</v>
       </c>
       <c r="F10" s="18">
-        <v>28086</v>
+        <v>28455</v>
       </c>
       <c r="G10" s="19">
-        <v>21272</v>
+        <v>22890</v>
       </c>
       <c r="H10" s="16">
-        <v>27844</v>
+        <v>28013</v>
       </c>
       <c r="I10" s="16">
-        <v>920</v>
+        <v>950</v>
       </c>
       <c r="J10" s="18">
-        <v>18517</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+        <v>18718</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>38</v>
       </c>
@@ -2677,31 +2679,31 @@
         <v>7</v>
       </c>
       <c r="C11" s="13">
-        <v>354843</v>
+        <v>367362</v>
       </c>
       <c r="D11" s="11">
-        <v>305896</v>
+        <v>315766</v>
       </c>
       <c r="E11" s="11">
-        <v>61492</v>
+        <v>63459</v>
       </c>
       <c r="F11" s="14">
-        <v>103514</v>
+        <v>104459</v>
       </c>
       <c r="G11" s="13">
-        <v>174157</v>
+        <v>187183</v>
       </c>
       <c r="H11" s="11">
-        <v>107595</v>
+        <v>108180</v>
       </c>
       <c r="I11" s="11">
-        <v>32878</v>
+        <v>33615</v>
       </c>
       <c r="J11" s="14">
-        <v>86127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+        <v>86554</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>39</v>
       </c>
@@ -2709,31 +2711,31 @@
         <v>8</v>
       </c>
       <c r="C12" s="19">
-        <v>620022</v>
+        <v>635657</v>
       </c>
       <c r="D12" s="16">
-        <v>837111</v>
+        <v>853103</v>
       </c>
       <c r="E12" s="16">
-        <v>33856</v>
+        <v>35175</v>
       </c>
       <c r="F12" s="18">
-        <v>200199</v>
+        <v>200895</v>
       </c>
       <c r="G12" s="19">
-        <v>277634</v>
+        <v>292396</v>
       </c>
       <c r="H12" s="16">
-        <v>325815</v>
+        <v>327024</v>
       </c>
       <c r="I12" s="16">
-        <v>16408</v>
+        <v>16562</v>
       </c>
       <c r="J12" s="18">
-        <v>153922</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+        <v>154149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>40</v>
       </c>
@@ -2741,31 +2743,31 @@
         <v>12</v>
       </c>
       <c r="C13" s="13">
-        <v>190148</v>
+        <v>195874</v>
       </c>
       <c r="D13" s="11">
-        <v>203135</v>
+        <v>206317</v>
       </c>
       <c r="E13" s="11">
-        <v>14339</v>
+        <v>15044</v>
       </c>
       <c r="F13" s="14">
-        <v>45640</v>
+        <v>46548</v>
       </c>
       <c r="G13" s="13">
-        <v>100254</v>
+        <v>102284</v>
       </c>
       <c r="H13" s="11">
-        <v>59647</v>
+        <v>60002</v>
       </c>
       <c r="I13" s="11">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="J13" s="14">
-        <v>32946</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+        <v>32976</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>10</v>
       </c>
@@ -2773,31 +2775,31 @@
         <v>13</v>
       </c>
       <c r="C14" s="19">
-        <v>58882</v>
+        <v>60128</v>
       </c>
       <c r="D14" s="16">
-        <v>39856</v>
+        <v>40807</v>
       </c>
       <c r="E14" s="16">
-        <v>6405</v>
+        <v>6997</v>
       </c>
       <c r="F14" s="18">
-        <v>13798</v>
+        <v>14095</v>
       </c>
       <c r="G14" s="19">
-        <v>25611</v>
+        <v>26277</v>
       </c>
       <c r="H14" s="16">
-        <v>9203</v>
+        <v>9296</v>
       </c>
       <c r="I14" s="16">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J14" s="18">
-        <v>9633</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+        <v>9641</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -2805,31 +2807,31 @@
         <v>9</v>
       </c>
       <c r="C15" s="13">
-        <v>132081</v>
+        <v>132944</v>
       </c>
       <c r="D15" s="11">
-        <v>128004</v>
+        <v>128484</v>
       </c>
       <c r="E15" s="11">
-        <v>24317</v>
+        <v>25317</v>
       </c>
       <c r="F15" s="14">
         <v>33995</v>
       </c>
       <c r="G15" s="13">
-        <v>100907</v>
+        <v>106092</v>
       </c>
       <c r="H15" s="11">
-        <v>67574</v>
+        <v>69266</v>
       </c>
       <c r="I15" s="11">
-        <v>10306</v>
+        <v>10378</v>
       </c>
       <c r="J15" s="14">
-        <v>23503</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+        <v>23506</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -2837,31 +2839,31 @@
         <v>10</v>
       </c>
       <c r="C16" s="19">
-        <v>90481</v>
+        <v>94971</v>
       </c>
       <c r="D16" s="16">
-        <v>83918</v>
+        <v>85727</v>
       </c>
       <c r="E16" s="16">
-        <v>14315</v>
+        <v>15525</v>
       </c>
       <c r="F16" s="18">
-        <v>34690</v>
+        <v>34862</v>
       </c>
       <c r="G16" s="19">
-        <v>37231</v>
+        <v>38985</v>
       </c>
       <c r="H16" s="16">
-        <v>34419</v>
+        <v>34554</v>
       </c>
       <c r="I16" s="16">
-        <v>4213</v>
+        <v>4297</v>
       </c>
       <c r="J16" s="18">
-        <v>23566</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+        <v>23774</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>41</v>
       </c>
@@ -2869,32 +2871,32 @@
         <v>11</v>
       </c>
       <c r="C17" s="13">
-        <v>153511</v>
+        <v>158898</v>
       </c>
       <c r="D17" s="11">
-        <v>115338</v>
+        <v>118524</v>
       </c>
       <c r="E17" s="11">
-        <v>18814</v>
+        <v>20220</v>
       </c>
       <c r="F17" s="14">
-        <v>62074</v>
+        <v>63330</v>
       </c>
       <c r="G17" s="13">
-        <v>44909</v>
+        <v>46094</v>
       </c>
       <c r="H17" s="11">
-        <v>38192</v>
+        <v>38301</v>
       </c>
       <c r="I17" s="11">
-        <v>8967</v>
+        <v>8971</v>
       </c>
       <c r="J17" s="14">
-        <v>43867</v>
+        <v>43978</v>
       </c>
       <c r="K17" s="31"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -2902,31 +2904,31 @@
         <v>14</v>
       </c>
       <c r="C18" s="16">
-        <v>113430</v>
+        <v>116977</v>
       </c>
       <c r="D18" s="16">
-        <v>82952</v>
+        <v>83525</v>
       </c>
       <c r="E18" s="16">
-        <v>26580</v>
+        <v>28279</v>
       </c>
       <c r="F18" s="18">
-        <v>28217</v>
+        <v>28319</v>
       </c>
       <c r="G18" s="16">
-        <v>59317</v>
+        <v>61340</v>
       </c>
       <c r="H18" s="16">
-        <v>39296</v>
+        <v>39713</v>
       </c>
       <c r="I18" s="16">
-        <v>4410</v>
+        <v>4462</v>
       </c>
       <c r="J18" s="18">
-        <v>20234</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>20687</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="1" t="s">
         <v>59</v>
@@ -2935,7 +2937,7 @@
         <v>71</v>
       </c>
       <c r="D19" s="11">
-        <v>6064</v>
+        <v>6960</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>71</v>
@@ -2956,52 +2958,52 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="43" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="47">
-        <v>3575924</v>
+        <v>3674548</v>
       </c>
       <c r="D20" s="48">
-        <v>3431784</v>
+        <v>3498862</v>
       </c>
       <c r="E20" s="48">
-        <v>467451</v>
+        <v>492199</v>
       </c>
       <c r="F20" s="49">
-        <v>934086</v>
+        <v>941010</v>
       </c>
       <c r="G20" s="47">
-        <v>1804267</v>
+        <v>1870696</v>
       </c>
       <c r="H20" s="48">
-        <v>1317014</v>
+        <v>1326766</v>
       </c>
       <c r="I20" s="48">
-        <v>121283</v>
+        <v>123672</v>
       </c>
       <c r="J20" s="49">
-        <v>720519</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+        <v>723723</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="62" t="s">
         <v>63</v>
       </c>
@@ -3015,12 +3017,12 @@
       <c r="I25" s="62"/>
       <c r="J25" s="62"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C28" s="9"/>
     </row>
   </sheetData>
@@ -3041,21 +3043,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926B42D2-7956-44E7-BD5B-5AF896796AC0}">
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.54296875" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>29</v>
       </c>
@@ -3069,21 +3071,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="37">
         <v>44192</v>
       </c>
       <c r="B2" s="32">
-        <v>23713</v>
+        <v>23711</v>
       </c>
       <c r="C2" s="32">
         <v>0</v>
       </c>
       <c r="D2" s="32">
-        <v>23713</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>23711</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="37">
         <v>44193</v>
       </c>
@@ -3097,7 +3099,7 @@
         <v>18737</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="37">
         <v>44194</v>
       </c>
@@ -3111,35 +3113,35 @@
         <v>42820</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="37">
         <v>44195</v>
       </c>
       <c r="B5" s="32">
-        <v>57835</v>
+        <v>57834</v>
       </c>
       <c r="C5" s="32">
         <v>0</v>
       </c>
       <c r="D5" s="32">
-        <v>57835</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>57834</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="37">
         <v>44196</v>
       </c>
       <c r="B6" s="32">
-        <v>38868</v>
+        <v>38867</v>
       </c>
       <c r="C6" s="32">
         <v>0</v>
       </c>
       <c r="D6" s="32">
-        <v>38868</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>38867</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="37">
         <v>44197</v>
       </c>
@@ -3153,21 +3155,21 @@
         <v>24666</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="37">
         <v>44198</v>
       </c>
       <c r="B8" s="32">
-        <v>52185</v>
+        <v>52189</v>
       </c>
       <c r="C8" s="32">
         <v>0</v>
       </c>
       <c r="D8" s="32">
-        <v>52185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>52189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="37">
         <v>44199</v>
       </c>
@@ -3181,119 +3183,119 @@
         <v>24989</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="37">
         <v>44200</v>
       </c>
       <c r="B10" s="32">
-        <v>48707</v>
+        <v>48713</v>
       </c>
       <c r="C10" s="32">
         <v>0</v>
       </c>
       <c r="D10" s="32">
-        <v>48707</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>48713</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="37">
         <v>44201</v>
       </c>
       <c r="B11" s="32">
-        <v>52391</v>
+        <v>52392</v>
       </c>
       <c r="C11" s="32">
         <v>0</v>
       </c>
       <c r="D11" s="32">
-        <v>52391</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>52392</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="37">
         <v>44202</v>
       </c>
       <c r="B12" s="32">
-        <v>59361</v>
+        <v>59362</v>
       </c>
       <c r="C12" s="32">
         <v>0</v>
       </c>
       <c r="D12" s="32">
-        <v>59361</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>59362</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="37">
         <v>44203</v>
       </c>
       <c r="B13" s="32">
-        <v>58414</v>
+        <v>58411</v>
       </c>
       <c r="C13" s="32">
         <v>0</v>
       </c>
       <c r="D13" s="32">
-        <v>58414</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>58411</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="37">
         <v>44204</v>
       </c>
       <c r="B14" s="32">
-        <v>60856</v>
+        <v>60855</v>
       </c>
       <c r="C14" s="32">
         <v>0</v>
       </c>
       <c r="D14" s="32">
-        <v>60856</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>60855</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="37">
         <v>44205</v>
       </c>
       <c r="B15" s="32">
-        <v>56985</v>
+        <v>56984</v>
       </c>
       <c r="C15" s="32">
         <v>0</v>
       </c>
       <c r="D15" s="32">
-        <v>56985</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>56984</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="37">
         <v>44206</v>
       </c>
       <c r="B16" s="32">
-        <v>33456</v>
+        <v>33458</v>
       </c>
       <c r="C16" s="32">
         <v>0</v>
       </c>
       <c r="D16" s="32">
-        <v>33456</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>33458</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="37">
         <v>44207</v>
       </c>
       <c r="B17" s="32">
-        <v>65973</v>
+        <v>65971</v>
       </c>
       <c r="C17" s="32">
         <v>0</v>
       </c>
       <c r="D17" s="32">
-        <v>65973</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>65971</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="37">
         <v>44208</v>
       </c>
@@ -3307,21 +3309,21 @@
         <v>81822</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="37">
         <v>44209</v>
       </c>
       <c r="B19" s="32">
-        <v>99284</v>
+        <v>99285</v>
       </c>
       <c r="C19" s="32">
         <v>0</v>
       </c>
       <c r="D19" s="32">
-        <v>99284</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <v>99285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="37">
         <v>44210</v>
       </c>
@@ -3335,21 +3337,21 @@
         <v>100015</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="37">
         <v>44211</v>
       </c>
       <c r="B21" s="32">
-        <v>92325</v>
+        <v>92323</v>
       </c>
       <c r="C21" s="32">
         <v>431</v>
       </c>
       <c r="D21" s="32">
-        <v>92756</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>92754</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="37">
         <v>44212</v>
       </c>
@@ -3363,77 +3365,77 @@
         <v>57155</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="37">
         <v>44213</v>
       </c>
       <c r="B23" s="32">
-        <v>30692</v>
+        <v>30691</v>
       </c>
       <c r="C23" s="32">
         <v>13694</v>
       </c>
       <c r="D23" s="32">
-        <v>44386</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="37">
         <v>44214</v>
       </c>
       <c r="B24" s="32">
-        <v>58103</v>
+        <v>58102</v>
       </c>
       <c r="C24" s="32">
         <v>16371</v>
       </c>
       <c r="D24" s="32">
-        <v>74474</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+        <v>74473</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="37">
         <v>44215</v>
       </c>
       <c r="B25" s="32">
-        <v>68702</v>
+        <v>68700</v>
       </c>
       <c r="C25" s="32">
         <v>27217</v>
       </c>
       <c r="D25" s="32">
-        <v>95919</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+        <v>95917</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="37">
         <v>44216</v>
       </c>
       <c r="B26" s="32">
-        <v>78614</v>
+        <v>78616</v>
       </c>
       <c r="C26" s="32">
-        <v>50635</v>
+        <v>50636</v>
       </c>
       <c r="D26" s="32">
-        <v>129249</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+        <v>129252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="37">
         <v>44217</v>
       </c>
       <c r="B27" s="32">
-        <v>61094</v>
+        <v>61098</v>
       </c>
       <c r="C27" s="32">
         <v>35428</v>
       </c>
       <c r="D27" s="32">
-        <v>96522</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+        <v>96526</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="37">
         <v>44218</v>
       </c>
@@ -3447,49 +3449,49 @@
         <v>115867</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="37">
         <v>44219</v>
       </c>
       <c r="B29" s="32">
-        <v>49318</v>
+        <v>49315</v>
       </c>
       <c r="C29" s="32">
         <v>43998</v>
       </c>
       <c r="D29" s="32">
-        <v>93316</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+        <v>93313</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="37">
         <v>44220</v>
       </c>
       <c r="B30" s="32">
-        <v>38031</v>
+        <v>38029</v>
       </c>
       <c r="C30" s="32">
         <v>28091</v>
       </c>
       <c r="D30" s="32">
-        <v>66122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+        <v>66120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="37">
         <v>44221</v>
       </c>
       <c r="B31" s="32">
-        <v>58212</v>
+        <v>58213</v>
       </c>
       <c r="C31" s="32">
         <v>39693</v>
       </c>
       <c r="D31" s="32">
-        <v>97905</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+        <v>97906</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="37">
         <v>44222</v>
       </c>
@@ -3503,21 +3505,21 @@
         <v>102804</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="37">
         <v>44223</v>
       </c>
       <c r="B33" s="32">
-        <v>53806</v>
+        <v>53807</v>
       </c>
       <c r="C33" s="32">
         <v>59387</v>
       </c>
       <c r="D33" s="32">
-        <v>113193</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+        <v>113194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="37">
         <v>44224</v>
       </c>
@@ -3531,21 +3533,21 @@
         <v>100200</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="37">
         <v>44225</v>
       </c>
       <c r="B35" s="32">
-        <v>55976</v>
+        <v>55978</v>
       </c>
       <c r="C35" s="32">
         <v>53964</v>
       </c>
       <c r="D35" s="32">
-        <v>109940</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+        <v>109942</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="37">
         <v>44226</v>
       </c>
@@ -3559,7 +3561,7 @@
         <v>88007</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="37">
         <v>44227</v>
       </c>
@@ -3573,49 +3575,49 @@
         <v>62764</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="37">
         <v>44228</v>
       </c>
       <c r="B38" s="32">
-        <v>50560</v>
+        <v>50559</v>
       </c>
       <c r="C38" s="32">
         <v>65727</v>
       </c>
       <c r="D38" s="32">
-        <v>116287</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+        <v>116286</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="37">
         <v>44229</v>
       </c>
       <c r="B39" s="32">
-        <v>58457</v>
+        <v>58456</v>
       </c>
       <c r="C39" s="32">
         <v>69738</v>
       </c>
       <c r="D39" s="32">
-        <v>128195</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+        <v>128194</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="37">
         <v>44230</v>
       </c>
       <c r="B40" s="32">
-        <v>58345</v>
+        <v>58340</v>
       </c>
       <c r="C40" s="32">
         <v>85325</v>
       </c>
       <c r="D40" s="32">
-        <v>143670</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+        <v>143665</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="37">
         <v>44231</v>
       </c>
@@ -3623,69 +3625,69 @@
         <v>63761</v>
       </c>
       <c r="C41" s="32">
-        <v>72987</v>
+        <v>72986</v>
       </c>
       <c r="D41" s="32">
-        <v>136748</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+        <v>136747</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="37">
         <v>44232</v>
       </c>
       <c r="B42" s="32">
-        <v>60524</v>
+        <v>60521</v>
       </c>
       <c r="C42" s="32">
-        <v>74076</v>
+        <v>74077</v>
       </c>
       <c r="D42" s="32">
-        <v>134600</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+        <v>134598</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="37">
         <v>44233</v>
       </c>
       <c r="B43" s="32">
-        <v>49336</v>
+        <v>49352</v>
       </c>
       <c r="C43" s="32">
-        <v>55543</v>
+        <v>55669</v>
       </c>
       <c r="D43" s="32">
-        <v>104879</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+        <v>105021</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="37">
         <v>44234</v>
       </c>
       <c r="B44" s="32">
-        <v>33522</v>
+        <v>33521</v>
       </c>
       <c r="C44" s="32">
-        <v>26854</v>
+        <v>26853</v>
       </c>
       <c r="D44" s="32">
-        <v>60376</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+        <v>60374</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="37">
         <v>44235</v>
       </c>
       <c r="B45" s="32">
-        <v>54907</v>
+        <v>54905</v>
       </c>
       <c r="C45" s="32">
-        <v>52131</v>
+        <v>52129</v>
       </c>
       <c r="D45" s="32">
-        <v>107038</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+        <v>107034</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="37">
         <v>44236</v>
       </c>
@@ -3693,13 +3695,13 @@
         <v>59865</v>
       </c>
       <c r="C46" s="32">
-        <v>65695</v>
+        <v>65697</v>
       </c>
       <c r="D46" s="32">
-        <v>125560</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+        <v>125562</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="37">
         <v>44237</v>
       </c>
@@ -3707,55 +3709,55 @@
         <v>75552</v>
       </c>
       <c r="C47" s="32">
-        <v>77926</v>
+        <v>77976</v>
       </c>
       <c r="D47" s="32">
-        <v>153478</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+        <v>153528</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="37">
         <v>44238</v>
       </c>
       <c r="B48" s="32">
-        <v>71731</v>
+        <v>71727</v>
       </c>
       <c r="C48" s="32">
-        <v>72083</v>
+        <v>72084</v>
       </c>
       <c r="D48" s="32">
-        <v>143814</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+        <v>143811</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="37">
         <v>44239</v>
       </c>
       <c r="B49" s="32">
-        <v>80428</v>
+        <v>80429</v>
       </c>
       <c r="C49" s="32">
-        <v>78828</v>
+        <v>78829</v>
       </c>
       <c r="D49" s="32">
-        <v>159256</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+        <v>159258</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="37">
         <v>44240</v>
       </c>
       <c r="B50" s="32">
-        <v>63677</v>
+        <v>63776</v>
       </c>
       <c r="C50" s="32">
-        <v>47141</v>
+        <v>47140</v>
       </c>
       <c r="D50" s="32">
-        <v>110818</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+        <v>110916</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="37">
         <v>44241</v>
       </c>
@@ -3769,91 +3771,91 @@
         <v>66415</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="37">
         <v>44242</v>
       </c>
       <c r="B52" s="32">
-        <v>70852</v>
+        <v>70868</v>
       </c>
       <c r="C52" s="32">
-        <v>56108</v>
+        <v>56112</v>
       </c>
       <c r="D52" s="32">
-        <v>126960</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>126980</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="37">
         <v>44243</v>
       </c>
       <c r="B53" s="32">
-        <v>81609</v>
+        <v>81608</v>
       </c>
       <c r="C53" s="32">
-        <v>53973</v>
+        <v>53980</v>
       </c>
       <c r="D53" s="32">
-        <v>135582</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>135588</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="37">
         <v>44244</v>
       </c>
       <c r="B54" s="32">
-        <v>95619</v>
+        <v>95622</v>
       </c>
       <c r="C54" s="32">
-        <v>54682</v>
+        <v>54710</v>
       </c>
       <c r="D54" s="32">
-        <v>150301</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+        <v>150332</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="37">
         <v>44245</v>
       </c>
       <c r="B55" s="32">
-        <v>93967</v>
+        <v>93970</v>
       </c>
       <c r="C55" s="32">
-        <v>52783</v>
+        <v>52812</v>
       </c>
       <c r="D55" s="32">
-        <v>146750</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>146782</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="37">
         <v>44246</v>
       </c>
       <c r="B56" s="32">
-        <v>98161</v>
+        <v>98177</v>
       </c>
       <c r="C56" s="32">
-        <v>53268</v>
+        <v>53282</v>
       </c>
       <c r="D56" s="32">
-        <v>151429</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>151459</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="37">
         <v>44247</v>
       </c>
       <c r="B57" s="32">
-        <v>75327</v>
+        <v>75335</v>
       </c>
       <c r="C57" s="32">
-        <v>37658</v>
+        <v>37659</v>
       </c>
       <c r="D57" s="32">
-        <v>112985</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>112994</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="37">
         <v>44248</v>
       </c>
@@ -3867,91 +3869,91 @@
         <v>85608</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="37">
         <v>44249</v>
       </c>
       <c r="B59" s="32">
-        <v>99651</v>
+        <v>99674</v>
       </c>
       <c r="C59" s="32">
-        <v>53106</v>
+        <v>53105</v>
       </c>
       <c r="D59" s="32">
-        <v>152757</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>152779</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="37">
         <v>44250</v>
       </c>
       <c r="B60" s="32">
-        <v>104878</v>
+        <v>104886</v>
       </c>
       <c r="C60" s="32">
         <v>56605</v>
       </c>
       <c r="D60" s="32">
-        <v>161483</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>161491</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="37">
         <v>44251</v>
       </c>
       <c r="B61" s="32">
-        <v>114965</v>
+        <v>115027</v>
       </c>
       <c r="C61" s="32">
-        <v>58152</v>
+        <v>58151</v>
       </c>
       <c r="D61" s="32">
-        <v>173117</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>173178</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="37">
         <v>44252</v>
       </c>
       <c r="B62" s="32">
-        <v>127384</v>
+        <v>127647</v>
       </c>
       <c r="C62" s="32">
-        <v>53195</v>
+        <v>53202</v>
       </c>
       <c r="D62" s="32">
-        <v>180579</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>180849</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="37">
         <v>44253</v>
       </c>
       <c r="B63" s="32">
-        <v>137415</v>
+        <v>137514</v>
       </c>
       <c r="C63" s="32">
         <v>59470</v>
       </c>
       <c r="D63" s="32">
-        <v>196885</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>196984</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="37">
         <v>44254</v>
       </c>
       <c r="B64" s="32">
-        <v>109198</v>
+        <v>109176</v>
       </c>
       <c r="C64" s="32">
-        <v>38761</v>
+        <v>38760</v>
       </c>
       <c r="D64" s="32">
-        <v>147959</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>147936</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="37">
         <v>44255</v>
       </c>
@@ -3959,397 +3961,417 @@
         <v>84507</v>
       </c>
       <c r="C65" s="32">
-        <v>28165</v>
+        <v>28164</v>
       </c>
       <c r="D65" s="32">
-        <v>112672</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+        <v>112671</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="37">
         <v>44256</v>
       </c>
       <c r="B66" s="32">
-        <v>141555</v>
+        <v>141607</v>
       </c>
       <c r="C66" s="32">
-        <v>50435</v>
+        <v>50433</v>
       </c>
       <c r="D66" s="32">
-        <v>191990</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+        <v>192040</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="37">
         <v>44257</v>
       </c>
       <c r="B67" s="32">
-        <v>162093</v>
+        <v>162161</v>
       </c>
       <c r="C67" s="32">
-        <v>55850</v>
+        <v>55847</v>
       </c>
       <c r="D67" s="32">
-        <v>217943</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+        <v>218008</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="37">
         <v>44258</v>
       </c>
       <c r="B68" s="32">
-        <v>174362</v>
+        <v>174436</v>
       </c>
       <c r="C68" s="32">
-        <v>67686</v>
+        <v>67836</v>
       </c>
       <c r="D68" s="32">
-        <v>242048</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+        <v>242272</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="37">
         <v>44259</v>
       </c>
       <c r="B69" s="32">
-        <v>177347</v>
+        <v>177634</v>
       </c>
       <c r="C69" s="32">
-        <v>62958</v>
+        <v>62957</v>
       </c>
       <c r="D69" s="32">
-        <v>240305</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+        <v>240591</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="37">
         <v>44260</v>
       </c>
       <c r="B70" s="32">
-        <v>188410</v>
+        <v>188588</v>
       </c>
       <c r="C70" s="32">
-        <v>63525</v>
+        <v>63524</v>
       </c>
       <c r="D70" s="32">
-        <v>251935</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>252112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="37">
         <v>44261</v>
       </c>
       <c r="B71" s="32">
-        <v>146853</v>
+        <v>146850</v>
       </c>
       <c r="C71" s="32">
-        <v>47346</v>
+        <v>47347</v>
       </c>
       <c r="D71" s="32">
-        <v>194199</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>194197</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="37">
         <v>44262</v>
       </c>
       <c r="B72" s="32">
-        <v>113746</v>
+        <v>113745</v>
       </c>
       <c r="C72" s="32">
-        <v>34532</v>
+        <v>34533</v>
       </c>
       <c r="D72" s="32">
         <v>148278</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="37">
         <v>44263</v>
       </c>
       <c r="B73" s="50">
-        <v>178542</v>
+        <v>178547</v>
       </c>
       <c r="C73" s="50">
-        <v>53412</v>
+        <v>53457</v>
       </c>
       <c r="D73" s="50">
-        <v>231954</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>232004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="37">
         <v>44264</v>
       </c>
       <c r="B74" s="50">
-        <v>193139</v>
+        <v>193156</v>
       </c>
       <c r="C74" s="50">
         <v>55089</v>
       </c>
       <c r="D74" s="50">
-        <v>248228</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>248245</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="37">
         <v>44265</v>
       </c>
       <c r="B75" s="50">
-        <v>212326</v>
+        <v>212493</v>
       </c>
       <c r="C75" s="50">
-        <v>67612</v>
+        <v>67667</v>
       </c>
       <c r="D75" s="50">
-        <v>279938</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>280160</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="37">
         <v>44266</v>
       </c>
       <c r="B76" s="50">
-        <v>225889</v>
+        <v>226183</v>
       </c>
       <c r="C76" s="50">
-        <v>62956</v>
+        <v>62958</v>
       </c>
       <c r="D76" s="50">
-        <v>288845</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>289141</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="37">
         <v>44267</v>
       </c>
       <c r="B77" s="50">
-        <v>234574</v>
+        <v>234896</v>
       </c>
       <c r="C77" s="50">
-        <v>69419</v>
+        <v>69424</v>
       </c>
       <c r="D77" s="50">
-        <v>303993</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>304320</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="37">
         <v>44268</v>
       </c>
       <c r="B78" s="50">
-        <v>188645</v>
+        <v>189004</v>
       </c>
       <c r="C78" s="50">
-        <v>48263</v>
+        <v>48259</v>
       </c>
       <c r="D78" s="50">
-        <v>236908</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>237263</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="37">
         <v>44269</v>
       </c>
       <c r="B79" s="50">
-        <v>130338</v>
+        <v>130339</v>
       </c>
       <c r="C79" s="50">
         <v>35242</v>
       </c>
       <c r="D79" s="50">
-        <v>165580</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>165581</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="37">
         <v>44270</v>
       </c>
       <c r="B80" s="50">
-        <v>176713</v>
+        <v>176852</v>
       </c>
       <c r="C80" s="50">
-        <v>57350</v>
+        <v>57348</v>
       </c>
       <c r="D80" s="50">
-        <v>234063</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>234200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="37">
         <v>44271</v>
       </c>
       <c r="B81" s="50">
-        <v>111535</v>
+        <v>111539</v>
       </c>
       <c r="C81" s="50">
-        <v>66374</v>
+        <v>66379</v>
       </c>
       <c r="D81" s="50">
-        <v>177909</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>177918</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="37">
         <v>44272</v>
       </c>
       <c r="B82" s="50">
-        <v>127337</v>
+        <v>127584</v>
       </c>
       <c r="C82" s="50">
-        <v>81233</v>
+        <v>81279</v>
       </c>
       <c r="D82" s="50">
-        <v>208570</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>208863</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="37">
         <v>44273</v>
       </c>
       <c r="B83" s="50">
-        <v>115687</v>
+        <v>116043</v>
       </c>
       <c r="C83" s="50">
-        <v>73486</v>
+        <v>73496</v>
       </c>
       <c r="D83" s="50">
-        <v>189173</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>189539</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="37">
         <v>44274</v>
       </c>
       <c r="B84" s="50">
-        <v>148362</v>
+        <v>149119</v>
       </c>
       <c r="C84" s="50">
-        <v>79763</v>
+        <v>79849</v>
       </c>
       <c r="D84" s="50">
-        <v>228125</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>228968</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="37">
         <v>44275</v>
       </c>
       <c r="B85" s="50">
-        <v>153997</v>
+        <v>155373</v>
       </c>
       <c r="C85" s="50">
-        <v>52693</v>
+        <v>52803</v>
       </c>
       <c r="D85" s="50">
-        <v>206690</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>208176</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="37">
         <v>44276</v>
       </c>
       <c r="B86" s="50">
-        <v>125447</v>
+        <v>125622</v>
       </c>
       <c r="C86" s="50">
-        <v>39157</v>
+        <v>39164</v>
       </c>
       <c r="D86" s="50">
-        <v>164604</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>164786</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="37">
         <v>44277</v>
       </c>
       <c r="B87" s="50">
-        <v>182200</v>
+        <v>183730</v>
       </c>
       <c r="C87" s="50">
-        <v>77916</v>
+        <v>78123</v>
       </c>
       <c r="D87" s="50">
-        <v>260116</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>261853</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="37">
         <v>44278</v>
       </c>
       <c r="B88" s="50">
-        <v>187901</v>
+        <v>192778</v>
       </c>
       <c r="C88" s="50">
-        <v>80394</v>
+        <v>80975</v>
       </c>
       <c r="D88" s="50">
-        <v>268295</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="51"/>
-      <c r="B89" s="51"/>
-      <c r="C89" s="51"/>
-      <c r="D89" s="51"/>
-    </row>
-    <row r="90" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>273753</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="37">
+        <v>44279</v>
+      </c>
+      <c r="B89" s="50">
+        <v>200855</v>
+      </c>
+      <c r="C89" s="50">
+        <v>85092</v>
+      </c>
+      <c r="D89" s="50">
+        <v>285947</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="51"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="51"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" s="60" t="s">
+    <row r="91" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="51"/>
+      <c r="B91" s="51"/>
+      <c r="C91" s="51"/>
+      <c r="D91" s="51"/>
+    </row>
+    <row r="92" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="51"/>
+      <c r="B92" s="51"/>
+      <c r="C92" s="51"/>
+      <c r="D92" s="51"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="B91" s="32">
-        <f>SUM(B2:B90)</f>
-        <v>7930580</v>
-      </c>
-      <c r="C91" s="32">
-        <f t="shared" ref="C91" si="0">SUM(C2:C90)</f>
-        <v>3516966</v>
-      </c>
-      <c r="D91" s="32">
-        <f>SUM(D2:D90)</f>
-        <v>11447546</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" s="55" t="s">
+      <c r="B93" s="32">
+        <f>SUM(B2:B92)</f>
+        <v>8143296</v>
+      </c>
+      <c r="C93" s="32">
+        <f t="shared" ref="C93" si="0">SUM(C2:C92)</f>
+        <v>3603619</v>
+      </c>
+      <c r="D93" s="32">
+        <f>SUM(D2:D92)</f>
+        <v>11746915</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="B92" s="57">
-        <v>6064</v>
-      </c>
-      <c r="C92" s="56">
+      <c r="B94" s="57">
+        <v>6960</v>
+      </c>
+      <c r="C94" s="56">
         <v>20</v>
       </c>
-      <c r="D92" s="61">
-        <f>B92+C92</f>
-        <v>6084</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" s="58" t="s">
+      <c r="D94" s="61">
+        <f>B94+C94</f>
+        <v>6980</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B93" s="59">
-        <f>B91+B92</f>
-        <v>7936644</v>
-      </c>
-      <c r="C93" s="59">
-        <f>C91+C92</f>
-        <v>3516986</v>
-      </c>
-      <c r="D93" s="59">
-        <f>D91+D92</f>
-        <v>11453630</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
+      <c r="B95" s="59">
+        <f>B93+B94</f>
+        <v>8150256</v>
+      </c>
+      <c r="C95" s="59">
+        <f>C93+C94</f>
+        <v>3603639</v>
+      </c>
+      <c r="D95" s="59">
+        <f>D93+D94</f>
+        <v>11753895</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>62</v>
       </c>
     </row>

--- a/Impfquotenmonitoring/raw_data/RKI_COVID19_Impfquotenmonitoring_latest.xlsx
+++ b/Impfquotenmonitoring/raw_data/RKI_COVID19_Impfquotenmonitoring_latest.xlsx
@@ -5,24 +5,24 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-03-25\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-03-26\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A734248-2897-424A-AFDF-F052B231413C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB23D72-FEE9-405A-8A56-E3AF9850CDAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Gesamt_bis_einschl_24.03.21" sheetId="12" r:id="rId2"/>
-    <sheet name="Indik_bis_einschl_24.03.21" sheetId="11" r:id="rId3"/>
+    <sheet name="Gesamt_bis_einschl_25.03.21" sheetId="12" r:id="rId2"/>
+    <sheet name="Indik_bis_einschl_25.03.21" sheetId="11" r:id="rId3"/>
     <sheet name="Impfungen_proTag" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_24.03.21!#REF!</definedName>
-    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_24.03.21!$G$2:$J$18</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_24.03.21!$D$3:$H$19</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_24.03.21!$C$2:$F$18</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_25.03.21!#REF!</definedName>
+    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_25.03.21!$G$2:$J$18</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_25.03.21!$D$3:$H$19</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_25.03.21!$C$2:$F$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="70">
   <si>
     <t>Bayern</t>
   </si>
@@ -240,22 +240,16 @@
     <t>* Impfungen, die in den bundeseigenen Impfzentren aus dem Impfkontingent des Bundes durchgeführt wurden. Diese gehen in die Berechnung der Impfquote für Gesamtdeutschland mit ein und umfassen nur Angehörige des Bundes, die nach §§ 2, 3 und 4 Coronavirus-Impfverordnung geimpft wurden. Die Zahlen werden unregelmäßig aktualisiert (letzte Aktualisierung: 16.03.2021).</t>
   </si>
   <si>
-    <t>Hessen ***</t>
-  </si>
-  <si>
-    <t>*** Aufgrund einer Softwareumstellung werden für die Impftage 22.03.-25.03.2021 vom Land Hessen keine Impfdaten nach Indikation übermittelt.</t>
-  </si>
-  <si>
-    <t>Datenstand: 25.03.2021, 8:00 Uhr</t>
-  </si>
-  <si>
-    <t>Durchgeführte Impfungen bundesweit und nach Bundesland bis einschließlich 24.03.21 (Gesamt_bis_einschl_24.03.21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 24.03.21 durchgeführt und bis zum 25.03.21, 8:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
-  </si>
-  <si>
-    <t>Anzahl Impfungen nach Indikation bis einschließlich 24.03.21 (Indik_bis_einschl_24.03.21)</t>
+    <t>Datenstand: 26.03.2021, 8:00 Uhr</t>
+  </si>
+  <si>
+    <t>Durchgeführte Impfungen bundesweit und nach Bundesland bis einschließlich 25.03.21 (Gesamt_bis_einschl_25.03.21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 25.03.21 durchgeführt und bis zum 26.03.21, 8:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
+  </si>
+  <si>
+    <t>Anzahl Impfungen nach Indikation bis einschließlich 25.03.21 (Indik_bis_einschl_25.03.21)</t>
   </si>
   <si>
     <t>-</t>
@@ -837,7 +831,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001_1" fillFormulas="1" connectionId="2" xr16:uid="{85D177FD-4909-4AAF-B663-F45CEC25E8F5}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001" fillFormulas="1" connectionId="1" xr16:uid="{8C6643A4-82D3-4F11-ADE7-BA4132573BCB}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="13">
     <queryTableFields count="4">
       <queryTableField id="5" name="Fälle in den letzten 7 Tagen"/>
@@ -858,7 +852,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001" fillFormulas="1" connectionId="1" xr16:uid="{8C6643A4-82D3-4F11-ADE7-BA4132573BCB}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001_1" fillFormulas="1" connectionId="2" xr16:uid="{85D177FD-4909-4AAF-B663-F45CEC25E8F5}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="13">
     <queryTableFields count="4">
       <queryTableField id="5" name="Fälle in den letzten 7 Tagen"/>
@@ -1202,7 +1196,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1223,7 +1217,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
@@ -1235,12 +1229,12 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1261,7 +1255,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1445,43 +1439,43 @@
         <v>1</v>
       </c>
       <c r="C4" s="25">
-        <v>1553969</v>
+        <v>1575899</v>
       </c>
       <c r="D4" s="10">
-        <v>1080589</v>
+        <v>1093673</v>
       </c>
       <c r="E4" s="10">
-        <v>721048</v>
+        <v>731746</v>
       </c>
       <c r="F4" s="10">
-        <v>46012</v>
+        <v>47770</v>
       </c>
       <c r="G4" s="10">
-        <v>313529</v>
+        <v>314157</v>
       </c>
       <c r="H4" s="10">
-        <v>23608</v>
+        <v>12225</v>
       </c>
       <c r="I4" s="24">
-        <v>9.7346904983733005</v>
+        <v>9.852560188404123</v>
       </c>
       <c r="J4" s="22">
-        <v>473380</v>
+        <v>482226</v>
       </c>
       <c r="K4" s="10">
-        <v>451401</v>
+        <v>458528</v>
       </c>
       <c r="L4" s="10">
-        <v>21973</v>
+        <v>23692</v>
       </c>
       <c r="M4" s="10">
         <v>6</v>
       </c>
       <c r="N4" s="11">
-        <v>9679</v>
+        <v>8732</v>
       </c>
       <c r="O4" s="41">
-        <v>4.2645333129616843</v>
+        <v>4.3442241779886368</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1492,43 +1486,43 @@
         <v>0</v>
       </c>
       <c r="C5" s="26">
-        <v>1974514</v>
+        <v>2021585</v>
       </c>
       <c r="D5" s="15">
-        <v>1344543</v>
+        <v>1378435</v>
       </c>
       <c r="E5" s="15">
-        <v>925792</v>
+        <v>944401</v>
       </c>
       <c r="F5" s="15">
-        <v>64901</v>
+        <v>68143</v>
       </c>
       <c r="G5" s="15">
-        <v>353850</v>
+        <v>365891</v>
       </c>
       <c r="H5" s="16">
-        <v>36328</v>
+        <v>33892</v>
       </c>
       <c r="I5" s="17">
-        <v>10.244342419966205</v>
+        <v>10.502572356307025</v>
       </c>
       <c r="J5" s="23">
-        <v>629971</v>
+        <v>643150</v>
       </c>
       <c r="K5" s="15">
-        <v>610832</v>
+        <v>623379</v>
       </c>
       <c r="L5" s="15">
-        <v>19079</v>
+        <v>19705</v>
       </c>
       <c r="M5" s="15">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="N5" s="16">
-        <v>13685</v>
+        <v>13179</v>
       </c>
       <c r="O5" s="17">
-        <v>4.7998752279759973</v>
+        <v>4.9002886686415126</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1539,43 +1533,43 @@
         <v>3</v>
       </c>
       <c r="C6" s="25">
-        <v>543356</v>
+        <v>561869</v>
       </c>
       <c r="D6" s="10">
-        <v>371582</v>
+        <v>385575</v>
       </c>
       <c r="E6" s="10">
-        <v>259717</v>
+        <v>262890</v>
       </c>
       <c r="F6" s="10">
-        <v>35780</v>
+        <v>36844</v>
       </c>
       <c r="G6" s="10">
-        <v>76085</v>
+        <v>85841</v>
       </c>
       <c r="H6" s="11">
-        <v>8871</v>
+        <v>13993</v>
       </c>
       <c r="I6" s="12">
-        <v>10.1262545677316</v>
+        <v>10.507588109631554</v>
       </c>
       <c r="J6" s="22">
-        <v>171774</v>
+        <v>176294</v>
       </c>
       <c r="K6" s="10">
-        <v>166446</v>
+        <v>170746</v>
       </c>
       <c r="L6" s="10">
-        <v>5328</v>
+        <v>5548</v>
       </c>
       <c r="M6" s="10">
         <v>0</v>
       </c>
       <c r="N6" s="11">
-        <v>3618</v>
+        <v>4520</v>
       </c>
       <c r="O6" s="12">
-        <v>4.6811397003017587</v>
+        <v>4.8043175470385409</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1586,43 +1580,43 @@
         <v>2</v>
       </c>
       <c r="C7" s="26">
-        <v>348612</v>
+        <v>364244</v>
       </c>
       <c r="D7" s="15">
-        <v>258338</v>
+        <v>272330</v>
       </c>
       <c r="E7" s="15">
-        <v>165536</v>
+        <v>173499</v>
       </c>
       <c r="F7" s="15">
-        <v>16329</v>
+        <v>17216</v>
       </c>
       <c r="G7" s="15">
-        <v>76473</v>
+        <v>81615</v>
       </c>
       <c r="H7" s="16">
-        <v>13714</v>
+        <v>12942</v>
       </c>
       <c r="I7" s="17">
-        <v>10.243812881831229</v>
+        <v>10.798634200578693</v>
       </c>
       <c r="J7" s="23">
-        <v>90274</v>
+        <v>91914</v>
       </c>
       <c r="K7" s="15">
-        <v>86179</v>
+        <v>87813</v>
       </c>
       <c r="L7" s="15">
-        <v>4094</v>
+        <v>4097</v>
       </c>
       <c r="M7" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N7" s="16">
-        <v>1521</v>
+        <v>1529</v>
       </c>
       <c r="O7" s="17">
-        <v>3.5796126163956998</v>
+        <v>3.6446431311717027</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1633,43 +1627,43 @@
         <v>4</v>
       </c>
       <c r="C8" s="25">
-        <v>107632</v>
+        <v>110696</v>
       </c>
       <c r="D8" s="10">
-        <v>76320</v>
+        <v>78609</v>
       </c>
       <c r="E8" s="10">
-        <v>49296</v>
+        <v>50747</v>
       </c>
       <c r="F8" s="10">
-        <v>3897</v>
+        <v>4170</v>
       </c>
       <c r="G8" s="10">
-        <v>23127</v>
+        <v>23692</v>
       </c>
       <c r="H8" s="11">
-        <v>2432</v>
+        <v>2290</v>
       </c>
       <c r="I8" s="12">
-        <v>11.203725179902584</v>
+        <v>11.539748855699191</v>
       </c>
       <c r="J8" s="22">
-        <v>31312</v>
+        <v>32087</v>
       </c>
       <c r="K8" s="10">
-        <v>29457</v>
+        <v>30200</v>
       </c>
       <c r="L8" s="10">
-        <v>1855</v>
+        <v>1887</v>
       </c>
       <c r="M8" s="10">
         <v>0</v>
       </c>
       <c r="N8" s="11">
-        <v>725</v>
+        <v>743</v>
       </c>
       <c r="O8" s="12">
-        <v>4.5965807499097187</v>
+        <v>4.7103502338513392</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1680,31 +1674,31 @@
         <v>5</v>
       </c>
       <c r="C9" s="26">
-        <v>265937</v>
+        <v>270731</v>
       </c>
       <c r="D9" s="15">
-        <v>182998</v>
+        <v>186502</v>
       </c>
       <c r="E9" s="15">
-        <v>126887</v>
+        <v>129838</v>
       </c>
       <c r="F9" s="15">
         <v>6986</v>
       </c>
       <c r="G9" s="15">
-        <v>49125</v>
+        <v>49678</v>
       </c>
       <c r="H9" s="16">
-        <v>3725</v>
+        <v>3475</v>
       </c>
       <c r="I9" s="17">
-        <v>9.9064935880466827</v>
+        <v>10.09618065311032</v>
       </c>
       <c r="J9" s="23">
-        <v>82939</v>
+        <v>84229</v>
       </c>
       <c r="K9" s="15">
-        <v>81336</v>
+        <v>82626</v>
       </c>
       <c r="L9" s="15">
         <v>1600</v>
@@ -1713,10 +1707,10 @@
         <v>3</v>
       </c>
       <c r="N9" s="16">
-        <v>1231</v>
+        <v>1275</v>
       </c>
       <c r="O9" s="17">
-        <v>4.4898560186395695</v>
+        <v>4.5596894415653946</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1727,43 +1721,43 @@
         <v>15</v>
       </c>
       <c r="C10" s="25">
-        <v>892266</v>
+        <v>915592</v>
       </c>
       <c r="D10" s="10">
-        <v>616264</v>
+        <v>632067</v>
       </c>
       <c r="E10" s="10">
-        <v>433247</v>
+        <v>440022</v>
       </c>
       <c r="F10" s="10">
-        <v>21091</v>
+        <v>21461</v>
       </c>
       <c r="G10" s="10">
-        <v>161926</v>
+        <v>170584</v>
       </c>
       <c r="H10" s="11">
-        <v>15046</v>
+        <v>15189</v>
       </c>
       <c r="I10" s="12">
-        <v>9.8005114438747594</v>
+        <v>10.051828221014999</v>
       </c>
       <c r="J10" s="22">
-        <v>276002</v>
+        <v>283525</v>
       </c>
       <c r="K10" s="10">
-        <v>267516</v>
+        <v>274864</v>
       </c>
       <c r="L10" s="10">
-        <v>8425</v>
+        <v>8594</v>
       </c>
       <c r="M10" s="10">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="N10" s="11">
-        <v>8073</v>
+        <v>7074</v>
       </c>
       <c r="O10" s="12">
-        <v>4.3892889403442705</v>
+        <v>4.5089280034605155</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1774,43 +1768,43 @@
         <v>6</v>
       </c>
       <c r="C11" s="27">
-        <v>211466</v>
+        <v>218809</v>
       </c>
       <c r="D11" s="15">
-        <v>143656</v>
+        <v>149104</v>
       </c>
       <c r="E11" s="15">
-        <v>110628</v>
+        <v>114344</v>
       </c>
       <c r="F11" s="15">
-        <v>8183</v>
+        <v>8570</v>
       </c>
       <c r="G11" s="15">
-        <v>24845</v>
+        <v>26190</v>
       </c>
       <c r="H11" s="16">
-        <v>5513</v>
+        <v>5196</v>
       </c>
       <c r="I11" s="17">
-        <v>8.9330642022015532</v>
+        <v>9.2718410982142085</v>
       </c>
       <c r="J11" s="23">
-        <v>67810</v>
+        <v>69705</v>
       </c>
       <c r="K11" s="15">
-        <v>64891</v>
+        <v>66785</v>
       </c>
       <c r="L11" s="15">
         <v>2888</v>
       </c>
       <c r="M11" s="15">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N11" s="16">
-        <v>1843</v>
+        <v>1894</v>
       </c>
       <c r="O11" s="17">
-        <v>4.2166779219196364</v>
+        <v>4.3345160676509105</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1821,43 +1815,43 @@
         <v>7</v>
       </c>
       <c r="C12" s="25">
-        <v>1108104</v>
+        <v>1147835</v>
       </c>
       <c r="D12" s="10">
-        <v>761064</v>
+        <v>786406</v>
       </c>
       <c r="E12" s="10">
-        <v>517978</v>
+        <v>529166</v>
       </c>
       <c r="F12" s="10">
-        <v>33818</v>
+        <v>35572</v>
       </c>
       <c r="G12" s="10">
-        <v>209268</v>
+        <v>221668</v>
       </c>
       <c r="H12" s="11">
-        <v>22214</v>
+        <v>23547</v>
       </c>
       <c r="I12" s="12">
-        <v>9.5209072048566803</v>
+        <v>9.8379355104728674</v>
       </c>
       <c r="J12" s="22">
-        <v>347040</v>
+        <v>361429</v>
       </c>
       <c r="K12" s="10">
-        <v>337726</v>
+        <v>351557</v>
       </c>
       <c r="L12" s="10">
-        <v>9314</v>
+        <v>9872</v>
       </c>
       <c r="M12" s="10">
         <v>0</v>
       </c>
       <c r="N12" s="11">
-        <v>13537</v>
+        <v>13983</v>
       </c>
       <c r="O12" s="12">
-        <v>4.3414688335980456</v>
+        <v>4.5214751586517634</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1868,43 +1862,43 @@
         <v>8</v>
       </c>
       <c r="C13" s="26">
-        <v>2358399</v>
+        <v>2404677</v>
       </c>
       <c r="D13" s="15">
-        <v>1639704</v>
+        <v>1675232</v>
       </c>
       <c r="E13" s="15">
-        <v>1138319</v>
+        <v>1151058</v>
       </c>
       <c r="F13" s="15">
-        <v>35544</v>
+        <v>39086</v>
       </c>
       <c r="G13" s="15">
-        <v>465841</v>
+        <v>485088</v>
       </c>
       <c r="H13" s="16">
-        <v>29344</v>
+        <v>29876</v>
       </c>
       <c r="I13" s="17">
-        <v>9.1362556910621429</v>
+        <v>9.3342139153465595</v>
       </c>
       <c r="J13" s="23">
-        <v>718695</v>
+        <v>729445</v>
       </c>
       <c r="K13" s="15">
-        <v>704777</v>
+        <v>715507</v>
       </c>
       <c r="L13" s="15">
         <v>13640</v>
       </c>
       <c r="M13" s="15">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="N13" s="16">
-        <v>15427</v>
+        <v>9907</v>
       </c>
       <c r="O13" s="17">
-        <v>4.0044918374828056</v>
+        <v>4.0643896901921472</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1915,43 +1909,43 @@
         <v>12</v>
       </c>
       <c r="C14" s="25">
-        <v>616516</v>
+        <v>631794</v>
       </c>
       <c r="D14" s="10">
-        <v>443982</v>
+        <v>457330</v>
       </c>
       <c r="E14" s="10">
-        <v>292824</v>
+        <v>303386</v>
       </c>
       <c r="F14" s="10">
-        <v>22337</v>
+        <v>24531</v>
       </c>
       <c r="G14" s="10">
-        <v>128821</v>
+        <v>129413</v>
       </c>
       <c r="H14" s="11">
-        <v>8391</v>
+        <v>12179</v>
       </c>
       <c r="I14" s="12">
-        <v>10.844956512159667</v>
+        <v>11.171002341775074</v>
       </c>
       <c r="J14" s="22">
-        <v>172534</v>
+        <v>174464</v>
       </c>
       <c r="K14" s="10">
-        <v>168255</v>
+        <v>169731</v>
       </c>
       <c r="L14" s="10">
-        <v>4232</v>
+        <v>4686</v>
       </c>
       <c r="M14" s="10">
         <v>47</v>
       </c>
       <c r="N14" s="11">
-        <v>2227</v>
+        <v>1430</v>
       </c>
       <c r="O14" s="12">
-        <v>4.2144134826838844</v>
+        <v>4.2615567589168579</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1962,43 +1956,43 @@
         <v>13</v>
       </c>
       <c r="C15" s="26">
-        <v>154580</v>
+        <v>158410</v>
       </c>
       <c r="D15" s="15">
-        <v>115559</v>
+        <v>118612</v>
       </c>
       <c r="E15" s="15">
-        <v>78257</v>
+        <v>79610</v>
       </c>
       <c r="F15" s="15">
-        <v>6022</v>
+        <v>6313</v>
       </c>
       <c r="G15" s="15">
-        <v>31280</v>
+        <v>32689</v>
       </c>
       <c r="H15" s="16">
-        <v>3074</v>
+        <v>3058</v>
       </c>
       <c r="I15" s="17">
-        <v>11.709445964938235</v>
+        <v>12.018802557942298</v>
       </c>
       <c r="J15" s="23">
-        <v>39021</v>
+        <v>39798</v>
       </c>
       <c r="K15" s="15">
-        <v>37560</v>
+        <v>38334</v>
       </c>
       <c r="L15" s="15">
-        <v>1457</v>
+        <v>1460</v>
       </c>
       <c r="M15" s="15">
         <v>4</v>
       </c>
       <c r="N15" s="16">
-        <v>765</v>
+        <v>781</v>
       </c>
       <c r="O15" s="17">
-        <v>3.9539481217201162</v>
+        <v>4.032680539919971</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -2009,43 +2003,43 @@
         <v>9</v>
       </c>
       <c r="C16" s="25">
-        <v>547324</v>
+        <v>563964</v>
       </c>
       <c r="D16" s="10">
-        <v>342572</v>
+        <v>353207</v>
       </c>
       <c r="E16" s="10">
-        <v>271474</v>
+        <v>275568</v>
       </c>
       <c r="F16" s="10">
-        <v>17895</v>
+        <v>18179</v>
       </c>
       <c r="G16" s="10">
-        <v>53203</v>
+        <v>59460</v>
       </c>
       <c r="H16" s="11">
-        <v>4173</v>
+        <v>10635</v>
       </c>
       <c r="I16" s="12">
-        <v>8.4129282846071352</v>
+        <v>8.6741040149843887</v>
       </c>
       <c r="J16" s="22">
-        <v>204752</v>
+        <v>210757</v>
       </c>
       <c r="K16" s="10">
-        <v>197271</v>
+        <v>202888</v>
       </c>
       <c r="L16" s="10">
-        <v>7481</v>
+        <v>7869</v>
       </c>
       <c r="M16" s="10">
         <v>0</v>
       </c>
       <c r="N16" s="11">
-        <v>6904</v>
+        <v>6005</v>
       </c>
       <c r="O16" s="12">
-        <v>5.0283265769820069</v>
+        <v>5.1757981576980781</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -2056,43 +2050,43 @@
         <v>10</v>
       </c>
       <c r="C17" s="26">
-        <v>296886</v>
+        <v>308932</v>
       </c>
       <c r="D17" s="15">
-        <v>212283</v>
+        <v>222005</v>
       </c>
       <c r="E17" s="15">
-        <v>143948</v>
+        <v>149697</v>
       </c>
       <c r="F17" s="15">
-        <v>13999</v>
+        <v>14357</v>
       </c>
       <c r="G17" s="15">
-        <v>54336</v>
+        <v>57951</v>
       </c>
       <c r="H17" s="16">
-        <v>8402</v>
+        <v>9722</v>
       </c>
       <c r="I17" s="17">
-        <v>9.6721678964015574</v>
+        <v>10.115127607206547</v>
       </c>
       <c r="J17" s="23">
-        <v>84603</v>
+        <v>86927</v>
       </c>
       <c r="K17" s="15">
-        <v>81259</v>
+        <v>83364</v>
       </c>
       <c r="L17" s="15">
-        <v>3340</v>
+        <v>3558</v>
       </c>
       <c r="M17" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17" s="16">
-        <v>1987</v>
+        <v>2324</v>
       </c>
       <c r="O17" s="17">
-        <v>3.8547336364158262</v>
+        <v>3.9606211459725844</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -2103,43 +2097,43 @@
         <v>11</v>
       </c>
       <c r="C18" s="25">
-        <v>424471</v>
+        <v>434056</v>
       </c>
       <c r="D18" s="10">
-        <v>319301</v>
+        <v>327657</v>
       </c>
       <c r="E18" s="10">
-        <v>218609</v>
+        <v>222656</v>
       </c>
       <c r="F18" s="10">
-        <v>15586</v>
+        <v>16240</v>
       </c>
       <c r="G18" s="10">
-        <v>85106</v>
+        <v>88761</v>
       </c>
       <c r="H18" s="11">
-        <v>10508</v>
+        <v>8370</v>
       </c>
       <c r="I18" s="12">
-        <v>10.996073040144667</v>
+        <v>11.28383658088976</v>
       </c>
       <c r="J18" s="22">
-        <v>105170</v>
+        <v>106399</v>
       </c>
       <c r="K18" s="10">
-        <v>102332</v>
+        <v>103447</v>
       </c>
       <c r="L18" s="10">
-        <v>2806</v>
+        <v>2917</v>
       </c>
       <c r="M18" s="10">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N18" s="11">
-        <v>1326</v>
+        <v>1230</v>
       </c>
       <c r="O18" s="12">
-        <v>3.6218395859455956</v>
+        <v>3.6641638309881661</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -2150,43 +2144,43 @@
         <v>14</v>
       </c>
       <c r="C19" s="26">
-        <v>342883</v>
+        <v>351178</v>
       </c>
       <c r="D19" s="15">
-        <v>234541</v>
+        <v>240493</v>
       </c>
       <c r="E19" s="15">
-        <v>157704</v>
+        <v>160768</v>
       </c>
       <c r="F19" s="15">
-        <v>8982</v>
+        <v>8986</v>
       </c>
       <c r="G19" s="15">
-        <v>67855</v>
+        <v>70739</v>
       </c>
       <c r="H19" s="16">
-        <v>5512</v>
+        <v>5523</v>
       </c>
       <c r="I19" s="17">
-        <v>10.993879190654447</v>
+        <v>11.272873349214251</v>
       </c>
       <c r="J19" s="23">
-        <v>108342</v>
+        <v>110685</v>
       </c>
       <c r="K19" s="15">
-        <v>101885</v>
+        <v>103636</v>
       </c>
       <c r="L19" s="15">
-        <v>6457</v>
+        <v>7049</v>
       </c>
       <c r="M19" s="15">
         <v>0</v>
       </c>
       <c r="N19" s="16">
-        <v>2544</v>
+        <v>2346</v>
       </c>
       <c r="O19" s="17">
-        <v>5.0784249204782279</v>
+        <v>5.1882507460000049</v>
       </c>
       <c r="P19" s="53"/>
       <c r="Q19" s="53"/>
@@ -2213,10 +2207,10 @@
         <v>6590</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J20" s="22">
         <v>20</v>
@@ -2231,10 +2225,10 @@
         <v>0</v>
       </c>
       <c r="N20" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P20" s="53"/>
       <c r="Q20" s="53"/>
@@ -2246,43 +2240,43 @@
         <v>19</v>
       </c>
       <c r="C21" s="44">
-        <v>11753895</v>
+        <v>12047251</v>
       </c>
       <c r="D21" s="42">
-        <v>8150256</v>
+        <v>8364197</v>
       </c>
       <c r="E21" s="42">
-        <v>5611264</v>
+        <v>5719396</v>
       </c>
       <c r="F21" s="42">
-        <v>357732</v>
+        <v>374794</v>
       </c>
       <c r="G21" s="42">
-        <v>2181260</v>
+        <v>2270007</v>
       </c>
       <c r="H21" s="42">
-        <v>200855</v>
+        <v>202112</v>
       </c>
       <c r="I21" s="45">
-        <v>9.7999017900323135</v>
+        <v>10.057145340279238</v>
       </c>
       <c r="J21" s="46">
-        <v>3603639</v>
+        <v>3683054</v>
       </c>
       <c r="K21" s="42">
-        <v>3489123</v>
+        <v>3563405</v>
       </c>
       <c r="L21" s="42">
-        <v>113989</v>
+        <v>119082</v>
       </c>
       <c r="M21" s="42">
-        <v>527</v>
+        <v>567</v>
       </c>
       <c r="N21" s="42">
-        <v>85092</v>
+        <v>76952</v>
       </c>
       <c r="O21" s="45">
-        <v>4.3330305559396241</v>
+        <v>4.4285194829936225</v>
       </c>
       <c r="P21" s="53"/>
       <c r="Q21" s="53"/>
@@ -2350,7 +2344,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2423,28 +2417,28 @@
         <v>1</v>
       </c>
       <c r="C3" s="13">
-        <v>495580</v>
+        <v>503176</v>
       </c>
       <c r="D3" s="11">
-        <v>453075</v>
+        <v>456613</v>
       </c>
       <c r="E3" s="11">
-        <v>77309</v>
+        <v>78457</v>
       </c>
       <c r="F3" s="14">
-        <v>97386</v>
+        <v>98230</v>
       </c>
       <c r="G3" s="13">
-        <v>297487</v>
+        <v>304238</v>
       </c>
       <c r="H3" s="11">
-        <v>145777</v>
+        <v>147346</v>
       </c>
       <c r="I3" s="11">
-        <v>9735</v>
+        <v>9843</v>
       </c>
       <c r="J3" s="14">
-        <v>79138</v>
+        <v>79908</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2455,28 +2449,28 @@
         <v>0</v>
       </c>
       <c r="C4" s="19">
-        <v>628261</v>
+        <v>647005</v>
       </c>
       <c r="D4" s="16">
-        <v>562642</v>
+        <v>572579</v>
       </c>
       <c r="E4" s="16">
-        <v>111890</v>
+        <v>119117</v>
       </c>
       <c r="F4" s="18">
-        <v>136347</v>
+        <v>136931</v>
       </c>
       <c r="G4" s="19">
-        <v>308025</v>
+        <v>317874</v>
       </c>
       <c r="H4" s="16">
-        <v>249872</v>
+        <v>252336</v>
       </c>
       <c r="I4" s="16">
-        <v>19312</v>
+        <v>20186</v>
       </c>
       <c r="J4" s="18">
-        <v>111146</v>
+        <v>111861</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2487,25 +2481,25 @@
         <v>3</v>
       </c>
       <c r="C5" s="13">
-        <v>259202</v>
+        <v>266552</v>
       </c>
       <c r="D5" s="11">
-        <v>118612</v>
+        <v>124321</v>
       </c>
       <c r="E5" s="11">
-        <v>2810</v>
+        <v>4198</v>
       </c>
       <c r="F5" s="14">
         <v>47310</v>
       </c>
       <c r="G5" s="13">
-        <v>133341</v>
+        <v>137535</v>
       </c>
       <c r="H5" s="11">
-        <v>37787</v>
+        <v>38206</v>
       </c>
       <c r="I5" s="11">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="J5" s="14">
         <v>40686</v>
@@ -2519,28 +2513,28 @@
         <v>2</v>
       </c>
       <c r="C6" s="19">
-        <v>122561</v>
+        <v>130303</v>
       </c>
       <c r="D6" s="16">
-        <v>101954</v>
+        <v>104056</v>
       </c>
       <c r="E6" s="16">
-        <v>27212</v>
+        <v>29853</v>
       </c>
       <c r="F6" s="18">
-        <v>26585</v>
+        <v>26787</v>
       </c>
       <c r="G6" s="19">
-        <v>45312</v>
+        <v>46521</v>
       </c>
       <c r="H6" s="16">
-        <v>42683</v>
+        <v>42807</v>
       </c>
       <c r="I6" s="16">
-        <v>1573</v>
+        <v>1611</v>
       </c>
       <c r="J6" s="18">
-        <v>18400</v>
+        <v>18672</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2551,28 +2545,28 @@
         <v>4</v>
       </c>
       <c r="C7" s="13">
-        <v>33228</v>
+        <v>34580</v>
       </c>
       <c r="D7" s="11">
-        <v>37303</v>
+        <v>38133</v>
       </c>
       <c r="E7" s="11">
-        <v>1775</v>
+        <v>1836</v>
       </c>
       <c r="F7" s="14">
-        <v>8758</v>
+        <v>8779</v>
       </c>
       <c r="G7" s="13">
-        <v>16508</v>
+        <v>17068</v>
       </c>
       <c r="H7" s="11">
-        <v>11427</v>
+        <v>11612</v>
       </c>
       <c r="I7" s="11">
-        <v>417</v>
+        <v>455</v>
       </c>
       <c r="J7" s="14">
-        <v>7257</v>
+        <v>7260</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2583,28 +2577,28 @@
         <v>5</v>
       </c>
       <c r="C8" s="19">
-        <v>71987</v>
+        <v>72848</v>
       </c>
       <c r="D8" s="16">
-        <v>99388</v>
+        <v>101602</v>
       </c>
       <c r="E8" s="16">
-        <v>6436</v>
+        <v>6853</v>
       </c>
       <c r="F8" s="18">
-        <v>16039</v>
+        <v>16040</v>
       </c>
       <c r="G8" s="19">
-        <v>43582</v>
+        <v>44697</v>
       </c>
       <c r="H8" s="16">
-        <v>35415</v>
+        <v>35570</v>
       </c>
       <c r="I8" s="16">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="J8" s="18">
-        <v>13212</v>
+        <v>13237</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2612,31 +2606,31 @@
         <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C9" s="13">
-        <v>242522</v>
+        <v>254777</v>
       </c>
       <c r="D9" s="11">
-        <v>230863</v>
+        <v>250592</v>
       </c>
       <c r="E9" s="11">
-        <v>49186</v>
+        <v>55443</v>
       </c>
       <c r="F9" s="14">
-        <v>53627</v>
+        <v>54907</v>
       </c>
       <c r="G9" s="13">
-        <v>142900</v>
+        <v>166047</v>
       </c>
       <c r="H9" s="11">
-        <v>89436</v>
+        <v>95476</v>
       </c>
       <c r="I9" s="11">
-        <v>12192</v>
+        <v>14036</v>
       </c>
       <c r="J9" s="14">
-        <v>39901</v>
+        <v>40804</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2647,28 +2641,28 @@
         <v>6</v>
       </c>
       <c r="C10" s="19">
-        <v>58396</v>
+        <v>61683</v>
       </c>
       <c r="D10" s="16">
-        <v>55812</v>
+        <v>57097</v>
       </c>
       <c r="E10" s="16">
-        <v>5565</v>
+        <v>6172</v>
       </c>
       <c r="F10" s="18">
-        <v>28455</v>
+        <v>28724</v>
       </c>
       <c r="G10" s="19">
-        <v>22890</v>
+        <v>24528</v>
       </c>
       <c r="H10" s="16">
-        <v>28013</v>
+        <v>28117</v>
       </c>
       <c r="I10" s="16">
-        <v>950</v>
+        <v>963</v>
       </c>
       <c r="J10" s="18">
-        <v>18718</v>
+        <v>19003</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2679,28 +2673,28 @@
         <v>7</v>
       </c>
       <c r="C11" s="13">
-        <v>367362</v>
+        <v>381373</v>
       </c>
       <c r="D11" s="11">
-        <v>315766</v>
+        <v>325335</v>
       </c>
       <c r="E11" s="11">
-        <v>63459</v>
+        <v>65426</v>
       </c>
       <c r="F11" s="14">
-        <v>104459</v>
+        <v>105350</v>
       </c>
       <c r="G11" s="13">
-        <v>187183</v>
+        <v>200736</v>
       </c>
       <c r="H11" s="11">
-        <v>108180</v>
+        <v>108688</v>
       </c>
       <c r="I11" s="11">
-        <v>33615</v>
+        <v>34132</v>
       </c>
       <c r="J11" s="14">
-        <v>86554</v>
+        <v>86772</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2711,28 +2705,28 @@
         <v>8</v>
       </c>
       <c r="C12" s="19">
-        <v>635657</v>
+        <v>646826</v>
       </c>
       <c r="D12" s="16">
-        <v>853103</v>
+        <v>874171</v>
       </c>
       <c r="E12" s="16">
-        <v>35175</v>
+        <v>37467</v>
       </c>
       <c r="F12" s="18">
-        <v>200895</v>
+        <v>202501</v>
       </c>
       <c r="G12" s="19">
-        <v>292396</v>
+        <v>302004</v>
       </c>
       <c r="H12" s="16">
-        <v>327024</v>
+        <v>328061</v>
       </c>
       <c r="I12" s="16">
-        <v>16562</v>
+        <v>16699</v>
       </c>
       <c r="J12" s="18">
-        <v>154149</v>
+        <v>154441</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2743,28 +2737,28 @@
         <v>12</v>
       </c>
       <c r="C13" s="13">
-        <v>195874</v>
+        <v>201537</v>
       </c>
       <c r="D13" s="11">
-        <v>206317</v>
+        <v>211424</v>
       </c>
       <c r="E13" s="11">
-        <v>15044</v>
+        <v>16464</v>
       </c>
       <c r="F13" s="14">
-        <v>46548</v>
+        <v>46978</v>
       </c>
       <c r="G13" s="13">
-        <v>102284</v>
+        <v>103597</v>
       </c>
       <c r="H13" s="11">
-        <v>60002</v>
+        <v>60580</v>
       </c>
       <c r="I13" s="11">
-        <v>700</v>
+        <v>713</v>
       </c>
       <c r="J13" s="14">
-        <v>32976</v>
+        <v>32996</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2775,28 +2769,28 @@
         <v>13</v>
       </c>
       <c r="C14" s="19">
-        <v>60128</v>
+        <v>61376</v>
       </c>
       <c r="D14" s="16">
-        <v>40807</v>
+        <v>41782</v>
       </c>
       <c r="E14" s="16">
-        <v>6997</v>
+        <v>7576</v>
       </c>
       <c r="F14" s="18">
-        <v>14095</v>
+        <v>14355</v>
       </c>
       <c r="G14" s="19">
-        <v>26277</v>
+        <v>26970</v>
       </c>
       <c r="H14" s="16">
-        <v>9296</v>
+        <v>9372</v>
       </c>
       <c r="I14" s="16">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J14" s="18">
-        <v>9641</v>
+        <v>9654</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2807,28 +2801,28 @@
         <v>9</v>
       </c>
       <c r="C15" s="13">
-        <v>132944</v>
+        <v>134001</v>
       </c>
       <c r="D15" s="11">
-        <v>128484</v>
+        <v>132280</v>
       </c>
       <c r="E15" s="11">
-        <v>25317</v>
+        <v>28818</v>
       </c>
       <c r="F15" s="14">
         <v>33995</v>
       </c>
       <c r="G15" s="13">
-        <v>106092</v>
+        <v>110628</v>
       </c>
       <c r="H15" s="11">
-        <v>69266</v>
+        <v>70248</v>
       </c>
       <c r="I15" s="11">
-        <v>10378</v>
+        <v>10533</v>
       </c>
       <c r="J15" s="14">
-        <v>23506</v>
+        <v>23509</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2839,28 +2833,28 @@
         <v>10</v>
       </c>
       <c r="C16" s="19">
-        <v>94971</v>
+        <v>100186</v>
       </c>
       <c r="D16" s="16">
-        <v>85727</v>
+        <v>87660</v>
       </c>
       <c r="E16" s="16">
-        <v>15525</v>
+        <v>17021</v>
       </c>
       <c r="F16" s="18">
-        <v>34862</v>
+        <v>35262</v>
       </c>
       <c r="G16" s="19">
-        <v>38985</v>
+        <v>40668</v>
       </c>
       <c r="H16" s="16">
-        <v>34554</v>
+        <v>34837</v>
       </c>
       <c r="I16" s="16">
-        <v>4297</v>
+        <v>4417</v>
       </c>
       <c r="J16" s="18">
-        <v>23774</v>
+        <v>24207</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2871,28 +2865,28 @@
         <v>11</v>
       </c>
       <c r="C17" s="13">
-        <v>158898</v>
+        <v>164080</v>
       </c>
       <c r="D17" s="11">
-        <v>118524</v>
+        <v>120695</v>
       </c>
       <c r="E17" s="11">
-        <v>20220</v>
+        <v>21532</v>
       </c>
       <c r="F17" s="14">
-        <v>63330</v>
+        <v>63370</v>
       </c>
       <c r="G17" s="13">
-        <v>46094</v>
+        <v>47205</v>
       </c>
       <c r="H17" s="11">
-        <v>38301</v>
+        <v>38419</v>
       </c>
       <c r="I17" s="11">
-        <v>8971</v>
+        <v>8978</v>
       </c>
       <c r="J17" s="14">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="K17" s="31"/>
     </row>
@@ -2904,28 +2898,28 @@
         <v>14</v>
       </c>
       <c r="C18" s="16">
-        <v>116977</v>
+        <v>120770</v>
       </c>
       <c r="D18" s="16">
-        <v>83525</v>
+        <v>84213</v>
       </c>
       <c r="E18" s="16">
-        <v>28279</v>
+        <v>29593</v>
       </c>
       <c r="F18" s="18">
-        <v>28319</v>
+        <v>28447</v>
       </c>
       <c r="G18" s="16">
-        <v>61340</v>
+        <v>63208</v>
       </c>
       <c r="H18" s="16">
-        <v>39713</v>
+        <v>40083</v>
       </c>
       <c r="I18" s="16">
-        <v>4462</v>
+        <v>4530</v>
       </c>
       <c r="J18" s="18">
-        <v>20687</v>
+        <v>21024</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -2934,28 +2928,28 @@
         <v>59</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D19" s="11">
         <v>6960</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H19" s="11">
         <v>20</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2964,28 +2958,28 @@
         <v>19</v>
       </c>
       <c r="C20" s="47">
-        <v>3674548</v>
+        <v>3781073</v>
       </c>
       <c r="D20" s="48">
-        <v>3498862</v>
+        <v>3589513</v>
       </c>
       <c r="E20" s="48">
-        <v>492199</v>
+        <v>525826</v>
       </c>
       <c r="F20" s="49">
-        <v>941010</v>
+        <v>947966</v>
       </c>
       <c r="G20" s="47">
-        <v>1870696</v>
+        <v>1953524</v>
       </c>
       <c r="H20" s="48">
-        <v>1326766</v>
+        <v>1341778</v>
       </c>
       <c r="I20" s="48">
-        <v>123672</v>
+        <v>127657</v>
       </c>
       <c r="J20" s="49">
-        <v>723723</v>
+        <v>728013</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -3016,11 +3010,6 @@
       <c r="H25" s="62"/>
       <c r="I25" s="62"/>
       <c r="J25" s="62"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C28" s="9"/>
@@ -3046,7 +3035,7 @@
   <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3090,13 +3079,13 @@
         <v>44193</v>
       </c>
       <c r="B3" s="32">
-        <v>18737</v>
+        <v>18736</v>
       </c>
       <c r="C3" s="32">
         <v>0</v>
       </c>
       <c r="D3" s="32">
-        <v>18737</v>
+        <v>18736</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3104,13 +3093,13 @@
         <v>44194</v>
       </c>
       <c r="B4" s="32">
-        <v>42820</v>
+        <v>42819</v>
       </c>
       <c r="C4" s="32">
         <v>0</v>
       </c>
       <c r="D4" s="32">
-        <v>42820</v>
+        <v>42819</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3202,13 +3191,13 @@
         <v>44201</v>
       </c>
       <c r="B11" s="32">
-        <v>52392</v>
+        <v>52391</v>
       </c>
       <c r="C11" s="32">
         <v>0</v>
       </c>
       <c r="D11" s="32">
-        <v>52392</v>
+        <v>52391</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3216,13 +3205,13 @@
         <v>44202</v>
       </c>
       <c r="B12" s="32">
-        <v>59362</v>
+        <v>59361</v>
       </c>
       <c r="C12" s="32">
         <v>0</v>
       </c>
       <c r="D12" s="32">
-        <v>59362</v>
+        <v>59361</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3230,13 +3219,13 @@
         <v>44203</v>
       </c>
       <c r="B13" s="32">
-        <v>58411</v>
+        <v>58410</v>
       </c>
       <c r="C13" s="32">
         <v>0</v>
       </c>
       <c r="D13" s="32">
-        <v>58411</v>
+        <v>58410</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3300,13 +3289,13 @@
         <v>44208</v>
       </c>
       <c r="B18" s="32">
-        <v>81822</v>
+        <v>81821</v>
       </c>
       <c r="C18" s="32">
         <v>0</v>
       </c>
       <c r="D18" s="32">
-        <v>81822</v>
+        <v>81821</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3328,13 +3317,13 @@
         <v>44210</v>
       </c>
       <c r="B20" s="32">
-        <v>99901</v>
+        <v>99905</v>
       </c>
       <c r="C20" s="32">
         <v>114</v>
       </c>
       <c r="D20" s="32">
-        <v>100015</v>
+        <v>100019</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3370,13 +3359,13 @@
         <v>44213</v>
       </c>
       <c r="B23" s="32">
-        <v>30691</v>
+        <v>30692</v>
       </c>
       <c r="C23" s="32">
         <v>13694</v>
       </c>
       <c r="D23" s="32">
-        <v>44385</v>
+        <v>44386</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3398,13 +3387,13 @@
         <v>44215</v>
       </c>
       <c r="B25" s="32">
-        <v>68700</v>
+        <v>68695</v>
       </c>
       <c r="C25" s="32">
         <v>27217</v>
       </c>
       <c r="D25" s="32">
-        <v>95917</v>
+        <v>95912</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -3415,10 +3404,10 @@
         <v>78616</v>
       </c>
       <c r="C26" s="32">
-        <v>50636</v>
+        <v>50637</v>
       </c>
       <c r="D26" s="32">
-        <v>129252</v>
+        <v>129253</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3426,13 +3415,13 @@
         <v>44217</v>
       </c>
       <c r="B27" s="32">
-        <v>61098</v>
+        <v>61097</v>
       </c>
       <c r="C27" s="32">
         <v>35428</v>
       </c>
       <c r="D27" s="32">
-        <v>96526</v>
+        <v>96525</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3440,13 +3429,13 @@
         <v>44218</v>
       </c>
       <c r="B28" s="32">
-        <v>84473</v>
+        <v>84470</v>
       </c>
       <c r="C28" s="32">
-        <v>31394</v>
+        <v>31393</v>
       </c>
       <c r="D28" s="32">
-        <v>115867</v>
+        <v>115863</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3468,13 +3457,13 @@
         <v>44220</v>
       </c>
       <c r="B30" s="32">
-        <v>38029</v>
+        <v>38028</v>
       </c>
       <c r="C30" s="32">
         <v>28091</v>
       </c>
       <c r="D30" s="32">
-        <v>66120</v>
+        <v>66119</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -3482,13 +3471,13 @@
         <v>44221</v>
       </c>
       <c r="B31" s="32">
-        <v>58213</v>
+        <v>58212</v>
       </c>
       <c r="C31" s="32">
         <v>39693</v>
       </c>
       <c r="D31" s="32">
-        <v>97906</v>
+        <v>97905</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3496,13 +3485,13 @@
         <v>44222</v>
       </c>
       <c r="B32" s="32">
-        <v>53454</v>
+        <v>53453</v>
       </c>
       <c r="C32" s="32">
         <v>49350</v>
       </c>
       <c r="D32" s="32">
-        <v>102804</v>
+        <v>102803</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3513,10 +3502,10 @@
         <v>53807</v>
       </c>
       <c r="C33" s="32">
-        <v>59387</v>
+        <v>59386</v>
       </c>
       <c r="D33" s="32">
-        <v>113194</v>
+        <v>113193</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -3524,13 +3513,13 @@
         <v>44224</v>
       </c>
       <c r="B34" s="32">
-        <v>51739</v>
+        <v>51738</v>
       </c>
       <c r="C34" s="32">
-        <v>48461</v>
+        <v>48460</v>
       </c>
       <c r="D34" s="32">
-        <v>100200</v>
+        <v>100198</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3538,13 +3527,13 @@
         <v>44225</v>
       </c>
       <c r="B35" s="32">
-        <v>55978</v>
+        <v>55976</v>
       </c>
       <c r="C35" s="32">
-        <v>53964</v>
+        <v>53963</v>
       </c>
       <c r="D35" s="32">
-        <v>109942</v>
+        <v>109939</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -3552,13 +3541,13 @@
         <v>44226</v>
       </c>
       <c r="B36" s="32">
-        <v>39452</v>
+        <v>39453</v>
       </c>
       <c r="C36" s="32">
         <v>48555</v>
       </c>
       <c r="D36" s="32">
-        <v>88007</v>
+        <v>88008</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -3566,13 +3555,13 @@
         <v>44227</v>
       </c>
       <c r="B37" s="32">
-        <v>31321</v>
+        <v>31320</v>
       </c>
       <c r="C37" s="32">
         <v>31443</v>
       </c>
       <c r="D37" s="32">
-        <v>62764</v>
+        <v>62763</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -3580,10 +3569,10 @@
         <v>44228</v>
       </c>
       <c r="B38" s="32">
-        <v>50559</v>
+        <v>50560</v>
       </c>
       <c r="C38" s="32">
-        <v>65727</v>
+        <v>65726</v>
       </c>
       <c r="D38" s="32">
         <v>116286</v>
@@ -3594,13 +3583,13 @@
         <v>44229</v>
       </c>
       <c r="B39" s="32">
-        <v>58456</v>
+        <v>58458</v>
       </c>
       <c r="C39" s="32">
-        <v>69738</v>
+        <v>69809</v>
       </c>
       <c r="D39" s="32">
-        <v>128194</v>
+        <v>128267</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -3608,13 +3597,13 @@
         <v>44230</v>
       </c>
       <c r="B40" s="32">
-        <v>58340</v>
+        <v>58360</v>
       </c>
       <c r="C40" s="32">
-        <v>85325</v>
+        <v>85323</v>
       </c>
       <c r="D40" s="32">
-        <v>143665</v>
+        <v>143683</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3636,13 +3625,13 @@
         <v>44232</v>
       </c>
       <c r="B42" s="32">
-        <v>60521</v>
+        <v>60520</v>
       </c>
       <c r="C42" s="32">
-        <v>74077</v>
+        <v>74281</v>
       </c>
       <c r="D42" s="32">
-        <v>134598</v>
+        <v>134801</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -3650,13 +3639,13 @@
         <v>44233</v>
       </c>
       <c r="B43" s="32">
-        <v>49352</v>
+        <v>49353</v>
       </c>
       <c r="C43" s="32">
-        <v>55669</v>
+        <v>55671</v>
       </c>
       <c r="D43" s="32">
-        <v>105021</v>
+        <v>105024</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -3667,10 +3656,10 @@
         <v>33521</v>
       </c>
       <c r="C44" s="32">
-        <v>26853</v>
+        <v>26852</v>
       </c>
       <c r="D44" s="32">
-        <v>60374</v>
+        <v>60373</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -3678,10 +3667,10 @@
         <v>44235</v>
       </c>
       <c r="B45" s="32">
-        <v>54905</v>
+        <v>54904</v>
       </c>
       <c r="C45" s="32">
-        <v>52129</v>
+        <v>52130</v>
       </c>
       <c r="D45" s="32">
         <v>107034</v>
@@ -3695,10 +3684,10 @@
         <v>59865</v>
       </c>
       <c r="C46" s="32">
-        <v>65697</v>
+        <v>65722</v>
       </c>
       <c r="D46" s="32">
-        <v>125562</v>
+        <v>125587</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -3706,13 +3695,13 @@
         <v>44237</v>
       </c>
       <c r="B47" s="32">
-        <v>75552</v>
+        <v>75549</v>
       </c>
       <c r="C47" s="32">
-        <v>77976</v>
+        <v>77977</v>
       </c>
       <c r="D47" s="32">
-        <v>153528</v>
+        <v>153526</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -3720,13 +3709,13 @@
         <v>44238</v>
       </c>
       <c r="B48" s="32">
-        <v>71727</v>
+        <v>71752</v>
       </c>
       <c r="C48" s="32">
-        <v>72084</v>
+        <v>72090</v>
       </c>
       <c r="D48" s="32">
-        <v>143811</v>
+        <v>143842</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -3734,10 +3723,10 @@
         <v>44239</v>
       </c>
       <c r="B49" s="32">
-        <v>80429</v>
+        <v>80428</v>
       </c>
       <c r="C49" s="32">
-        <v>78829</v>
+        <v>78830</v>
       </c>
       <c r="D49" s="32">
         <v>159258</v>
@@ -3751,10 +3740,10 @@
         <v>63776</v>
       </c>
       <c r="C50" s="32">
-        <v>47140</v>
+        <v>47139</v>
       </c>
       <c r="D50" s="32">
-        <v>110916</v>
+        <v>110915</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -3776,13 +3765,13 @@
         <v>44242</v>
       </c>
       <c r="B52" s="32">
-        <v>70868</v>
+        <v>70890</v>
       </c>
       <c r="C52" s="32">
-        <v>56112</v>
+        <v>56115</v>
       </c>
       <c r="D52" s="32">
-        <v>126980</v>
+        <v>127005</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -3790,13 +3779,13 @@
         <v>44243</v>
       </c>
       <c r="B53" s="32">
-        <v>81608</v>
+        <v>81606</v>
       </c>
       <c r="C53" s="32">
-        <v>53980</v>
+        <v>53986</v>
       </c>
       <c r="D53" s="32">
-        <v>135588</v>
+        <v>135592</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -3804,13 +3793,13 @@
         <v>44244</v>
       </c>
       <c r="B54" s="32">
-        <v>95622</v>
+        <v>95654</v>
       </c>
       <c r="C54" s="32">
-        <v>54710</v>
+        <v>54733</v>
       </c>
       <c r="D54" s="32">
-        <v>150332</v>
+        <v>150387</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -3818,13 +3807,13 @@
         <v>44245</v>
       </c>
       <c r="B55" s="32">
-        <v>93970</v>
+        <v>93952</v>
       </c>
       <c r="C55" s="32">
         <v>52812</v>
       </c>
       <c r="D55" s="32">
-        <v>146782</v>
+        <v>146764</v>
       </c>
     </row>
     <row r="56" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -3832,13 +3821,13 @@
         <v>44246</v>
       </c>
       <c r="B56" s="32">
-        <v>98177</v>
+        <v>98202</v>
       </c>
       <c r="C56" s="32">
-        <v>53282</v>
+        <v>53283</v>
       </c>
       <c r="D56" s="32">
-        <v>151459</v>
+        <v>151485</v>
       </c>
     </row>
     <row r="57" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -3846,13 +3835,13 @@
         <v>44247</v>
       </c>
       <c r="B57" s="32">
-        <v>75335</v>
+        <v>75334</v>
       </c>
       <c r="C57" s="32">
-        <v>37659</v>
+        <v>37671</v>
       </c>
       <c r="D57" s="32">
-        <v>112994</v>
+        <v>113005</v>
       </c>
     </row>
     <row r="58" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -3860,13 +3849,13 @@
         <v>44248</v>
       </c>
       <c r="B58" s="32">
-        <v>56545</v>
+        <v>56544</v>
       </c>
       <c r="C58" s="32">
         <v>29063</v>
       </c>
       <c r="D58" s="32">
-        <v>85608</v>
+        <v>85607</v>
       </c>
     </row>
     <row r="59" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -3874,13 +3863,13 @@
         <v>44249</v>
       </c>
       <c r="B59" s="32">
-        <v>99674</v>
+        <v>99699</v>
       </c>
       <c r="C59" s="32">
         <v>53105</v>
       </c>
       <c r="D59" s="32">
-        <v>152779</v>
+        <v>152804</v>
       </c>
     </row>
     <row r="60" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -3888,13 +3877,13 @@
         <v>44250</v>
       </c>
       <c r="B60" s="32">
-        <v>104886</v>
+        <v>104898</v>
       </c>
       <c r="C60" s="32">
         <v>56605</v>
       </c>
       <c r="D60" s="32">
-        <v>161491</v>
+        <v>161503</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -3902,13 +3891,13 @@
         <v>44251</v>
       </c>
       <c r="B61" s="32">
-        <v>115027</v>
+        <v>115042</v>
       </c>
       <c r="C61" s="32">
-        <v>58151</v>
+        <v>58152</v>
       </c>
       <c r="D61" s="32">
-        <v>173178</v>
+        <v>173194</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -3916,13 +3905,13 @@
         <v>44252</v>
       </c>
       <c r="B62" s="32">
-        <v>127647</v>
+        <v>127691</v>
       </c>
       <c r="C62" s="32">
         <v>53202</v>
       </c>
       <c r="D62" s="32">
-        <v>180849</v>
+        <v>180893</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -3930,13 +3919,13 @@
         <v>44253</v>
       </c>
       <c r="B63" s="32">
-        <v>137514</v>
+        <v>137527</v>
       </c>
       <c r="C63" s="32">
         <v>59470</v>
       </c>
       <c r="D63" s="32">
-        <v>196984</v>
+        <v>196997</v>
       </c>
     </row>
     <row r="64" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -3944,13 +3933,13 @@
         <v>44254</v>
       </c>
       <c r="B64" s="32">
-        <v>109176</v>
+        <v>109184</v>
       </c>
       <c r="C64" s="32">
-        <v>38760</v>
+        <v>38820</v>
       </c>
       <c r="D64" s="32">
-        <v>147936</v>
+        <v>148004</v>
       </c>
     </row>
     <row r="65" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -3958,13 +3947,13 @@
         <v>44255</v>
       </c>
       <c r="B65" s="32">
-        <v>84507</v>
+        <v>84522</v>
       </c>
       <c r="C65" s="32">
         <v>28164</v>
       </c>
       <c r="D65" s="32">
-        <v>112671</v>
+        <v>112686</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -3972,13 +3961,13 @@
         <v>44256</v>
       </c>
       <c r="B66" s="32">
-        <v>141607</v>
+        <v>141609</v>
       </c>
       <c r="C66" s="32">
         <v>50433</v>
       </c>
       <c r="D66" s="32">
-        <v>192040</v>
+        <v>192042</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3986,13 +3975,13 @@
         <v>44257</v>
       </c>
       <c r="B67" s="32">
-        <v>162161</v>
+        <v>162224</v>
       </c>
       <c r="C67" s="32">
-        <v>55847</v>
+        <v>55851</v>
       </c>
       <c r="D67" s="32">
-        <v>218008</v>
+        <v>218075</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -4000,13 +3989,13 @@
         <v>44258</v>
       </c>
       <c r="B68" s="32">
-        <v>174436</v>
+        <v>174466</v>
       </c>
       <c r="C68" s="32">
-        <v>67836</v>
+        <v>67823</v>
       </c>
       <c r="D68" s="32">
-        <v>242272</v>
+        <v>242289</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -4014,13 +4003,13 @@
         <v>44259</v>
       </c>
       <c r="B69" s="32">
-        <v>177634</v>
+        <v>177802</v>
       </c>
       <c r="C69" s="32">
-        <v>62957</v>
+        <v>62950</v>
       </c>
       <c r="D69" s="32">
-        <v>240591</v>
+        <v>240752</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -4028,13 +4017,13 @@
         <v>44260</v>
       </c>
       <c r="B70" s="32">
-        <v>188588</v>
+        <v>188869</v>
       </c>
       <c r="C70" s="32">
         <v>63524</v>
       </c>
       <c r="D70" s="32">
-        <v>252112</v>
+        <v>252393</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -4045,10 +4034,10 @@
         <v>146850</v>
       </c>
       <c r="C71" s="32">
-        <v>47347</v>
+        <v>47346</v>
       </c>
       <c r="D71" s="32">
-        <v>194197</v>
+        <v>194196</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -4070,13 +4059,13 @@
         <v>44263</v>
       </c>
       <c r="B73" s="50">
-        <v>178547</v>
+        <v>178543</v>
       </c>
       <c r="C73" s="50">
-        <v>53457</v>
+        <v>53458</v>
       </c>
       <c r="D73" s="50">
-        <v>232004</v>
+        <v>232001</v>
       </c>
     </row>
     <row r="74" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -4084,13 +4073,13 @@
         <v>44264</v>
       </c>
       <c r="B74" s="50">
-        <v>193156</v>
+        <v>193162</v>
       </c>
       <c r="C74" s="50">
-        <v>55089</v>
+        <v>55088</v>
       </c>
       <c r="D74" s="50">
-        <v>248245</v>
+        <v>248250</v>
       </c>
     </row>
     <row r="75" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -4098,13 +4087,13 @@
         <v>44265</v>
       </c>
       <c r="B75" s="50">
-        <v>212493</v>
+        <v>212637</v>
       </c>
       <c r="C75" s="50">
-        <v>67667</v>
+        <v>67702</v>
       </c>
       <c r="D75" s="50">
-        <v>280160</v>
+        <v>280339</v>
       </c>
     </row>
     <row r="76" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -4112,13 +4101,13 @@
         <v>44266</v>
       </c>
       <c r="B76" s="50">
-        <v>226183</v>
+        <v>226427</v>
       </c>
       <c r="C76" s="50">
-        <v>62958</v>
+        <v>62991</v>
       </c>
       <c r="D76" s="50">
-        <v>289141</v>
+        <v>289418</v>
       </c>
     </row>
     <row r="77" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -4126,13 +4115,13 @@
         <v>44267</v>
       </c>
       <c r="B77" s="50">
-        <v>234896</v>
+        <v>235545</v>
       </c>
       <c r="C77" s="50">
-        <v>69424</v>
+        <v>69425</v>
       </c>
       <c r="D77" s="50">
-        <v>304320</v>
+        <v>304970</v>
       </c>
     </row>
     <row r="78" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -4140,13 +4129,13 @@
         <v>44268</v>
       </c>
       <c r="B78" s="50">
-        <v>189004</v>
+        <v>189129</v>
       </c>
       <c r="C78" s="50">
-        <v>48259</v>
+        <v>48256</v>
       </c>
       <c r="D78" s="50">
-        <v>237263</v>
+        <v>237385</v>
       </c>
     </row>
     <row r="79" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -4154,13 +4143,13 @@
         <v>44269</v>
       </c>
       <c r="B79" s="50">
-        <v>130339</v>
+        <v>130338</v>
       </c>
       <c r="C79" s="50">
-        <v>35242</v>
+        <v>35241</v>
       </c>
       <c r="D79" s="50">
-        <v>165581</v>
+        <v>165579</v>
       </c>
     </row>
     <row r="80" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -4168,13 +4157,13 @@
         <v>44270</v>
       </c>
       <c r="B80" s="50">
-        <v>176852</v>
+        <v>176996</v>
       </c>
       <c r="C80" s="50">
-        <v>57348</v>
+        <v>57349</v>
       </c>
       <c r="D80" s="50">
-        <v>234200</v>
+        <v>234345</v>
       </c>
     </row>
     <row r="81" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -4182,13 +4171,13 @@
         <v>44271</v>
       </c>
       <c r="B81" s="50">
-        <v>111539</v>
+        <v>111579</v>
       </c>
       <c r="C81" s="50">
-        <v>66379</v>
+        <v>66382</v>
       </c>
       <c r="D81" s="50">
-        <v>177918</v>
+        <v>177961</v>
       </c>
     </row>
     <row r="82" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -4196,13 +4185,13 @@
         <v>44272</v>
       </c>
       <c r="B82" s="50">
-        <v>127584</v>
+        <v>127764</v>
       </c>
       <c r="C82" s="50">
-        <v>81279</v>
+        <v>81433</v>
       </c>
       <c r="D82" s="50">
-        <v>208863</v>
+        <v>209197</v>
       </c>
     </row>
     <row r="83" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -4210,13 +4199,13 @@
         <v>44273</v>
       </c>
       <c r="B83" s="50">
-        <v>116043</v>
+        <v>116145</v>
       </c>
       <c r="C83" s="50">
-        <v>73496</v>
+        <v>73500</v>
       </c>
       <c r="D83" s="50">
-        <v>189539</v>
+        <v>189645</v>
       </c>
     </row>
     <row r="84" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -4224,13 +4213,13 @@
         <v>44274</v>
       </c>
       <c r="B84" s="50">
-        <v>149119</v>
+        <v>149881</v>
       </c>
       <c r="C84" s="50">
-        <v>79849</v>
+        <v>80229</v>
       </c>
       <c r="D84" s="50">
-        <v>228968</v>
+        <v>230110</v>
       </c>
     </row>
     <row r="85" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -4238,13 +4227,13 @@
         <v>44275</v>
       </c>
       <c r="B85" s="50">
-        <v>155373</v>
+        <v>155660</v>
       </c>
       <c r="C85" s="50">
-        <v>52803</v>
+        <v>52980</v>
       </c>
       <c r="D85" s="50">
-        <v>208176</v>
+        <v>208640</v>
       </c>
     </row>
     <row r="86" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -4252,13 +4241,13 @@
         <v>44276</v>
       </c>
       <c r="B86" s="50">
-        <v>125622</v>
+        <v>125667</v>
       </c>
       <c r="C86" s="50">
-        <v>39164</v>
+        <v>39166</v>
       </c>
       <c r="D86" s="50">
-        <v>164786</v>
+        <v>164833</v>
       </c>
     </row>
     <row r="87" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -4266,13 +4255,13 @@
         <v>44277</v>
       </c>
       <c r="B87" s="50">
-        <v>183730</v>
+        <v>184308</v>
       </c>
       <c r="C87" s="50">
-        <v>78123</v>
+        <v>78140</v>
       </c>
       <c r="D87" s="50">
-        <v>261853</v>
+        <v>262448</v>
       </c>
     </row>
     <row r="88" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -4280,13 +4269,13 @@
         <v>44278</v>
       </c>
       <c r="B88" s="50">
-        <v>192778</v>
+        <v>195383</v>
       </c>
       <c r="C88" s="50">
-        <v>80975</v>
+        <v>81693</v>
       </c>
       <c r="D88" s="50">
-        <v>273753</v>
+        <v>277076</v>
       </c>
     </row>
     <row r="89" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -4294,20 +4283,28 @@
         <v>44279</v>
       </c>
       <c r="B89" s="50">
-        <v>200855</v>
+        <v>206018</v>
       </c>
       <c r="C89" s="50">
-        <v>85092</v>
+        <v>85642</v>
       </c>
       <c r="D89" s="50">
-        <v>285947</v>
+        <v>291660</v>
       </c>
     </row>
     <row r="90" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="51"/>
-      <c r="B90" s="51"/>
-      <c r="C90" s="51"/>
-      <c r="D90" s="51"/>
+      <c r="A90" s="37">
+        <v>44280</v>
+      </c>
+      <c r="B90" s="50">
+        <v>202112</v>
+      </c>
+      <c r="C90" s="50">
+        <v>76952</v>
+      </c>
+      <c r="D90" s="50">
+        <v>279064</v>
+      </c>
     </row>
     <row r="91" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="51"/>
@@ -4327,15 +4324,15 @@
       </c>
       <c r="B93" s="32">
         <f>SUM(B2:B92)</f>
-        <v>8143296</v>
+        <v>8357237</v>
       </c>
       <c r="C93" s="32">
         <f t="shared" ref="C93" si="0">SUM(C2:C92)</f>
-        <v>3603619</v>
+        <v>3683034</v>
       </c>
       <c r="D93" s="32">
         <f>SUM(D2:D92)</f>
-        <v>11746915</v>
+        <v>12040271</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -4359,15 +4356,15 @@
       </c>
       <c r="B95" s="59">
         <f>B93+B94</f>
-        <v>8150256</v>
+        <v>8364197</v>
       </c>
       <c r="C95" s="59">
         <f>C93+C94</f>
-        <v>3603639</v>
+        <v>3683054</v>
       </c>
       <c r="D95" s="59">
         <f>D93+D94</f>
-        <v>11753895</v>
+        <v>12047251</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
